--- a/1.1_Muestreo de datos Restaurante - 2.xlsx
+++ b/1.1_Muestreo de datos Restaurante - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888DB79-83EF-4E64-A096-549B9BAF0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B9DB2-354D-45B7-AFE2-14F7A82169C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="1" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="4" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos Dominio" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="693">
   <si>
     <t>Mapa de Contexto:</t>
   </si>
@@ -2124,6 +2124,9 @@
   </si>
   <si>
     <t>Inactivo</t>
+  </si>
+  <si>
+    <t>NumeroIdentificacion</t>
   </si>
 </sst>
 </file>
@@ -4242,7 +4245,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4377,113 +4380,120 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>679</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12">
+        <v>1038417228</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>+PaisOrigen!B39</f>
         <v>Canadá</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N4" s="53" t="s">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="54"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
+      <c r="P4" s="54"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="O4:P5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N4:O5" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{C3DB8FE7-104A-4E9F-8A7F-47DDB3F8769F}"/>
+    <hyperlink ref="O4:P5" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{C3DB8FE7-104A-4E9F-8A7F-47DDB3F8769F}"/>
     <hyperlink ref="B2" location="TipoIdentificacion!A2" display="TipoIdentificacion!A2" xr:uid="{98C723A8-FE82-4ADA-AEF4-181858A438A5}"/>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{4716CE20-6A03-43B2-98BB-9B508C0D4BDD}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{4716CE20-6A03-43B2-98BB-9B508C0D4BDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4497,7 +4507,7 @@
   <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7487,8 +7497,8 @@
   </sheetPr>
   <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/1.1_Muestreo de datos Restaurante - 2.xlsx
+++ b/1.1_Muestreo de datos Restaurante - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B9DB2-354D-45B7-AFE2-14F7A82169C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC4890-6253-42CE-8F6E-783DCA64E538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="4" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="3" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos Dominio" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="693">
   <si>
     <t>Mapa de Contexto:</t>
   </si>
@@ -2184,7 +2184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2500,26 +2500,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2537,7 +2517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2613,30 +2593,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2666,13 +2644,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2727,13 +2705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -2788,13 +2766,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -3544,10 +3522,10 @@
       <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -3556,8 +3534,8 @@
       <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3625,7 +3603,7 @@
       <c r="B2" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>660</v>
       </c>
       <c r="D2" s="24">
@@ -3649,7 +3627,7 @@
       <c r="B3" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>662</v>
       </c>
       <c r="D3" s="24">
@@ -3671,7 +3649,7 @@
       <c r="B4" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>664</v>
       </c>
       <c r="D4" s="24">
@@ -3687,10 +3665,10 @@
       <c r="H4" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -3699,7 +3677,7 @@
       <c r="B5" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="24">
         <v>30000</v>
       </c>
@@ -3711,8 +3689,8 @@
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="7"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -3721,7 +3699,7 @@
       <c r="B6" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="24">
         <v>39000</v>
       </c>
@@ -3741,7 +3719,7 @@
       <c r="B7" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>668</v>
       </c>
       <c r="D7" s="24">
@@ -3763,7 +3741,7 @@
       <c r="B8" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="24">
         <v>47000</v>
       </c>
@@ -3783,7 +3761,7 @@
       <c r="B9" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="24">
         <v>44000</v>
       </c>
@@ -3803,7 +3781,7 @@
       <c r="B10" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="24">
         <v>23000</v>
       </c>
@@ -3821,7 +3799,7 @@
       <c r="B11" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="49" t="s">
         <v>673</v>
       </c>
       <c r="D11" s="24">
@@ -3841,7 +3819,7 @@
       <c r="B12" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="24">
         <v>28000</v>
       </c>
@@ -3859,7 +3837,7 @@
       <c r="B13" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="24">
         <v>8500</v>
       </c>
@@ -3877,7 +3855,7 @@
       <c r="B14" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="24">
         <v>9600</v>
       </c>
@@ -3897,7 +3875,7 @@
       <c r="B15" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="25">
         <v>9500</v>
       </c>
@@ -3998,10 +3976,10 @@
       <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -4010,8 +3988,8 @@
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -4184,10 +4162,10 @@
       <c r="B6" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -4196,8 +4174,8 @@
       <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -4309,10 +4287,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -4325,8 +4303,8 @@
         <v>22</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="56"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -4477,14 +4455,14 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="54"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4504,2985 +4482,3724 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="32">
+        <v>93</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="33">
+        <v>355</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="33">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="33">
+        <v>376</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="33">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="I7" s="53" t="s">
+      <c r="E7" s="2"/>
+      <c r="J7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="33">
+        <v>672</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="I8" s="55"/>
+      <c r="E8" s="2"/>
       <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="33">
+        <v>966</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="33">
+        <v>213</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="33">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="33">
+        <v>374</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="33">
+        <v>297</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="33">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="33">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="33">
+        <v>994</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="33">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="33">
+        <v>973</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="33">
+        <v>880</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="33">
+        <v>501</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="33">
+        <v>229</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="33">
+        <v>975</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="33">
+        <v>375</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="33">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="33">
+        <v>591</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="33">
+        <v>387</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="33">
+        <v>267</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="33">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="33">
+        <v>673</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="33">
+        <v>359</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="33">
+        <v>226</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="33">
+        <v>257</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="33">
+        <v>238</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="33">
+        <v>855</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="33">
+        <v>237</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="33">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="33">
+        <v>235</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="33">
+        <v>56</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="33">
+        <v>86</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="33">
+        <v>357</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="33">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="33">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="33">
+        <v>269</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="33">
+        <v>242</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="33">
+        <v>243</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="33">
+        <v>850</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="33">
+        <v>82</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="33">
+        <v>225</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="33">
+        <v>506</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="33">
+        <v>385</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="33">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="33">
+        <v>5999</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="33">
+        <v>45</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="33">
+        <v>593</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="33">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="33">
+        <v>503</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="33">
+        <v>971</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="33">
+        <v>291</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="33">
+        <v>421</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="33">
+        <v>386</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="33">
+        <v>34</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="33">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="33">
+        <v>372</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="33">
+        <v>251</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="33">
+        <v>63</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="33">
+        <v>358</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="33">
+        <v>679</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="33">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="33">
+        <v>241</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="33">
+        <v>220</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="33">
+        <v>995</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="33">
+        <v>233</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="33">
+        <v>350</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="33">
+        <v>30</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="33">
+        <v>299</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="33">
+        <v>590</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="33">
+        <v>502</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="33">
+        <v>594</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="33">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="33">
+        <v>224</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="33">
+        <v>240</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="33">
+        <v>245</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="33">
+        <v>592</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="33">
+        <v>509</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="33">
+        <v>504</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="33">
+        <v>852</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="33">
+        <v>36</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="33">
+        <v>91</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="33">
+        <v>62</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="33">
+        <v>98</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="33">
+        <v>964</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="33">
+        <v>353</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="33">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="33">
+        <v>61</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="33">
+        <v>672</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="33">
+        <v>354</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="33">
+        <v>61</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="33">
+        <v>682</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="33">
+        <v>358</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="33">
+        <v>298</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="33">
+        <v>500</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="33">
+        <v>960</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="33">
+        <v>500</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="33">
+        <v>692</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="33">
+        <v>870</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="33">
+        <v>677</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="33">
+        <v>246</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="33">
+        <v>972</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="33">
+        <v>39</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="33">
+        <v>81</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="33">
+        <v>44</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="33">
+        <v>962</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="33">
+        <v>7</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="33">
+        <v>254</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="33">
+        <v>996</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="33">
+        <v>686</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="33">
+        <v>965</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="33">
+        <v>961</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="33">
+        <v>856</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="33">
+        <v>266</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="33">
+        <v>371</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="33">
+        <v>231</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="33">
+        <v>218</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="33">
+        <v>423</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="33">
+        <v>370</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="33">
+        <v>352</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="33">
+        <v>52</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="33">
+        <v>377</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="33">
+        <v>853</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="33">
+        <v>389</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="33">
+        <v>261</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="33">
+        <v>60</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="33">
+        <v>265</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="33">
+        <v>223</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="33">
+        <v>356</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="33">
+        <v>212</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="33">
+        <v>596</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="33">
+        <v>230</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="33">
+        <v>222</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="33">
+        <v>262</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>155</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="33">
+        <v>691</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="33">
+        <v>373</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="33">
+        <v>976</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="33">
+        <v>382</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="33">
+        <v>258</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="33">
+        <v>264</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="33">
+        <v>674</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>163</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="33">
+        <v>977</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="33">
+        <v>505</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="33">
+        <v>227</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>166</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="33">
+        <v>234</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="33">
+        <v>683</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>168</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="33">
+        <v>47</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>169</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="33">
+        <v>687</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>170</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="33">
+        <v>64</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>171</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="33">
+        <v>968</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>172</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="33">
+        <v>31</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>173</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="33">
+        <v>92</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>174</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="33">
+        <v>680</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>175</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="33">
+        <v>970</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>176</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="33">
+        <v>507</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>177</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="33">
+        <v>675</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>178</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="33">
+        <v>595</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>179</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="33">
+        <v>51</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>180</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="33">
+        <v>689</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>181</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="33">
+        <v>48</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="33">
+        <v>351</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>183</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="33">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>184</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="33">
+        <v>974</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>185</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="33">
+        <v>44</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>186</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="33">
+        <v>236</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>187</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="33">
+        <v>420</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>188</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>189</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="33">
+        <v>211</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>190</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="33">
+        <v>262</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>191</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="33">
+        <v>250</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>192</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="33">
+        <v>40</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>193</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="33">
+        <v>7</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>194</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="33">
+        <v>212</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>195</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="33">
+        <v>685</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>196</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>197</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="33">
+        <v>590</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>198</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="33">
+        <v>378</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>200</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>201</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="33">
+        <v>508</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>202</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>203</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="33">
+        <v>290</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>204</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>205</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="33">
+        <v>239</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>206</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="33">
+        <v>221</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>207</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="33">
+        <v>381</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>208</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="33">
+        <v>248</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>209</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="33">
+        <v>232</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>210</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="33">
+        <v>65</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>211</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>212</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="33">
+        <v>963</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>213</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="33">
+        <v>252</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>214</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="33">
+        <v>94</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>215</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="33">
+        <v>27</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>216</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="33">
+        <v>249</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>217</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="33">
+        <v>46</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>218</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="33">
+        <v>41</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>219</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="33">
+        <v>597</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>220</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="33">
+        <v>47</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>221</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="33">
+        <v>268</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>222</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="33">
+        <v>992</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>223</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="33">
+        <v>66</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>224</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="33">
+        <v>886</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>225</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="33">
+        <v>255</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>226</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="33">
+        <v>246</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>228</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="33">
+        <v>670</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>229</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="33">
+        <v>228</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>230</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="33">
+        <v>690</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>231</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="33">
+        <v>676</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>232</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>233</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="33">
+        <v>216</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>234</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="33">
+        <v>993</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>235</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="33">
+        <v>90</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>236</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="33">
+        <v>688</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>237</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="33">
+        <v>380</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>238</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="33">
+        <v>256</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>239</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="33">
+        <v>598</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>240</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="33">
+        <v>998</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>241</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="33">
+        <v>678</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>242</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="33">
+        <v>58</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>243</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="33">
+        <v>84</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>244</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="33">
+        <v>681</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>245</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="33">
+        <v>967</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>246</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="33">
+        <v>253</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>247</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="33">
+        <v>260</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>248</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="34">
+        <v>263</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="J7:K8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I7:J8" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{842AD6E7-1133-4648-867B-27B578E95C76}"/>
+    <hyperlink ref="J7:K8" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{842AD6E7-1133-4648-867B-27B578E95C76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7495,3241 +8212,1518 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>679</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>628</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="31" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="str">
-        <f>+PaisOrigen!C2</f>
-        <v>AFG</v>
-      </c>
-      <c r="C2" s="32">
-        <v>93</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="32" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>+PaisOrigen!C3</f>
-        <v>ALB</v>
-      </c>
-      <c r="C3" s="33">
-        <v>355</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="33" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="str">
-        <f>+PaisOrigen!C4</f>
-        <v>DEU</v>
-      </c>
-      <c r="C4" s="33">
-        <v>49</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="33" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="str">
-        <f>+PaisOrigen!C5</f>
-        <v>AND</v>
-      </c>
-      <c r="C5" s="33">
-        <v>376</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="33" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="50" t="str">
-        <f>+PaisOrigen!C6</f>
-        <v>AGO</v>
-      </c>
-      <c r="C6" s="33">
-        <v>244</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="33" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="50" t="str">
-        <f>+PaisOrigen!C7</f>
-        <v>AIA</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="50" t="str">
-        <f>+PaisOrigen!C8</f>
-        <v>ATA</v>
-      </c>
-      <c r="C8" s="33">
-        <v>672</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="J8" s="53" t="s">
+      <c r="B8" s="33"/>
+      <c r="H8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="50" t="str">
-        <f>+PaisOrigen!C9</f>
-        <v>ATG</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="str">
-        <f>+PaisOrigen!C10</f>
-        <v>SAU</v>
-      </c>
-      <c r="C10" s="33">
-        <v>966</v>
-      </c>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="50" t="str">
-        <f>+PaisOrigen!C11</f>
-        <v>DZA</v>
-      </c>
-      <c r="C11" s="33">
-        <v>213</v>
-      </c>
-      <c r="D11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="str">
-        <f>+PaisOrigen!C12</f>
-        <v>ARG</v>
-      </c>
-      <c r="C12" s="33">
-        <v>54</v>
-      </c>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="50" t="str">
-        <f>+PaisOrigen!C13</f>
-        <v>ARM</v>
-      </c>
-      <c r="C13" s="33">
-        <v>374</v>
-      </c>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="50" t="str">
-        <f>+PaisOrigen!C14</f>
-        <v>ABW</v>
-      </c>
-      <c r="C14" s="33">
-        <v>297</v>
-      </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="50" t="str">
-        <f>+PaisOrigen!C15</f>
-        <v>AUS</v>
-      </c>
-      <c r="C15" s="33">
-        <v>61</v>
-      </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="50" t="str">
-        <f>+PaisOrigen!C16</f>
-        <v>AUT</v>
-      </c>
-      <c r="C16" s="33">
-        <v>43</v>
-      </c>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="50" t="str">
-        <f>+PaisOrigen!C17</f>
-        <v>AZE</v>
-      </c>
-      <c r="C17" s="33">
-        <v>994</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="50" t="str">
-        <f>+PaisOrigen!C18</f>
-        <v>BEL</v>
-      </c>
-      <c r="C18" s="33">
-        <v>32</v>
-      </c>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="50" t="str">
-        <f>+PaisOrigen!C19</f>
-        <v>BHS</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="50" t="str">
-        <f>+PaisOrigen!C20</f>
-        <v>BHR</v>
-      </c>
-      <c r="C20" s="33">
-        <v>973</v>
-      </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="50" t="str">
-        <f>+PaisOrigen!C21</f>
-        <v>BGD</v>
-      </c>
-      <c r="C21" s="33">
-        <v>880</v>
-      </c>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="50" t="str">
-        <f>+PaisOrigen!C22</f>
-        <v>BRB</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="50" t="str">
-        <f>+PaisOrigen!C23</f>
-        <v>BLZ</v>
-      </c>
-      <c r="C23" s="33">
-        <v>501</v>
-      </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="50" t="str">
-        <f>+PaisOrigen!C24</f>
-        <v>BEN</v>
-      </c>
-      <c r="C24" s="33">
-        <v>229</v>
-      </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="str">
-        <f>+PaisOrigen!C25</f>
-        <v>BTN</v>
-      </c>
-      <c r="C25" s="33">
-        <v>975</v>
-      </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="50" t="str">
-        <f>+PaisOrigen!C26</f>
-        <v>BLR</v>
-      </c>
-      <c r="C26" s="33">
-        <v>375</v>
-      </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="33"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="str">
-        <f>+PaisOrigen!C27</f>
-        <v>MMR</v>
-      </c>
-      <c r="C27" s="33">
-        <v>95</v>
-      </c>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="33"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="50" t="str">
-        <f>+PaisOrigen!C28</f>
-        <v>BOL</v>
-      </c>
-      <c r="C28" s="33">
-        <v>591</v>
-      </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="50" t="str">
-        <f>+PaisOrigen!C29</f>
-        <v>BIH</v>
-      </c>
-      <c r="C29" s="33">
-        <v>387</v>
-      </c>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="50" t="str">
-        <f>+PaisOrigen!C30</f>
-        <v>BWA</v>
-      </c>
-      <c r="C30" s="33">
-        <v>267</v>
-      </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="50" t="str">
-        <f>+PaisOrigen!C31</f>
-        <v>BRA</v>
-      </c>
-      <c r="C31" s="33">
-        <v>55</v>
-      </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="50" t="str">
-        <f>+PaisOrigen!C32</f>
-        <v>BRN</v>
-      </c>
-      <c r="C32" s="33">
-        <v>673</v>
-      </c>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="33"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="50" t="str">
-        <f>+PaisOrigen!C33</f>
-        <v>BGR</v>
-      </c>
-      <c r="C33" s="33">
-        <v>359</v>
-      </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="50" t="str">
-        <f>+PaisOrigen!C34</f>
-        <v>BFA</v>
-      </c>
-      <c r="C34" s="33">
-        <v>226</v>
-      </c>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="33"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="50" t="str">
-        <f>+PaisOrigen!C35</f>
-        <v>BDI</v>
-      </c>
-      <c r="C35" s="33">
-        <v>257</v>
-      </c>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="50" t="str">
-        <f>+PaisOrigen!C36</f>
-        <v>CPV</v>
-      </c>
-      <c r="C36" s="33">
-        <v>238</v>
-      </c>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="33"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="50" t="str">
-        <f>+PaisOrigen!C37</f>
-        <v>KHM</v>
-      </c>
-      <c r="C37" s="33">
-        <v>855</v>
-      </c>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="33"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="50" t="str">
-        <f>+PaisOrigen!C38</f>
-        <v>CMR</v>
-      </c>
-      <c r="C38" s="33">
-        <v>237</v>
-      </c>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="33"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="50" t="str">
-        <f>+PaisOrigen!C39</f>
-        <v>CAN</v>
-      </c>
-      <c r="C39" s="33">
-        <v>1</v>
-      </c>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="33"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="50" t="str">
-        <f>+PaisOrigen!C40</f>
-        <v>TCD</v>
-      </c>
-      <c r="C40" s="33">
-        <v>235</v>
-      </c>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="50" t="str">
-        <f>+PaisOrigen!C41</f>
-        <v>CHL</v>
-      </c>
-      <c r="C41" s="33">
-        <v>56</v>
-      </c>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="33"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="50" t="str">
-        <f>+PaisOrigen!C42</f>
-        <v>CHN</v>
-      </c>
-      <c r="C42" s="33">
-        <v>86</v>
-      </c>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="33"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="50" t="str">
-        <f>+PaisOrigen!C43</f>
-        <v>CYP</v>
-      </c>
-      <c r="C43" s="33">
-        <v>357</v>
-      </c>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="33"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="50" t="str">
-        <f>+PaisOrigen!C44</f>
-        <v>VAT</v>
-      </c>
-      <c r="C44" s="33">
-        <v>39</v>
-      </c>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="33"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="50" t="str">
-        <f>+PaisOrigen!C45</f>
-        <v>COL</v>
-      </c>
-      <c r="C45" s="33">
-        <v>57</v>
-      </c>
-      <c r="D45" s="33"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="33"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="50" t="str">
-        <f>+PaisOrigen!C46</f>
-        <v>COM</v>
-      </c>
-      <c r="C46" s="33">
-        <v>269</v>
-      </c>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="50" t="str">
-        <f>+PaisOrigen!C47</f>
-        <v>COG</v>
-      </c>
-      <c r="C47" s="33">
-        <v>242</v>
-      </c>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="33"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="50" t="str">
-        <f>+PaisOrigen!C48</f>
-        <v>COD</v>
-      </c>
-      <c r="C48" s="33">
-        <v>243</v>
-      </c>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="33"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="50" t="str">
-        <f>+PaisOrigen!C49</f>
-        <v>PRK</v>
-      </c>
-      <c r="C49" s="33">
-        <v>850</v>
-      </c>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="33"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="50" t="str">
-        <f>+PaisOrigen!C50</f>
-        <v>KOR</v>
-      </c>
-      <c r="C50" s="33">
-        <v>82</v>
-      </c>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="33"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="50" t="str">
-        <f>+PaisOrigen!C51</f>
-        <v>CIV</v>
-      </c>
-      <c r="C51" s="33">
-        <v>225</v>
-      </c>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="33"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="50" t="str">
-        <f>+PaisOrigen!C52</f>
-        <v>CRI</v>
-      </c>
-      <c r="C52" s="33">
-        <v>506</v>
-      </c>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="33"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="50" t="str">
-        <f>+PaisOrigen!C53</f>
-        <v>HRV</v>
-      </c>
-      <c r="C53" s="33">
-        <v>385</v>
-      </c>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="33"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="50" t="str">
-        <f>+PaisOrigen!C54</f>
-        <v>CUB</v>
-      </c>
-      <c r="C54" s="33">
-        <v>53</v>
-      </c>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="33"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="50" t="str">
-        <f>+PaisOrigen!C55</f>
-        <v>CWU</v>
-      </c>
-      <c r="C55" s="33">
-        <v>5999</v>
-      </c>
-      <c r="D55" s="33"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="33"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="50" t="str">
-        <f>+PaisOrigen!C56</f>
-        <v>DNK</v>
-      </c>
-      <c r="C56" s="33">
-        <v>45</v>
-      </c>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="33"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="50" t="str">
-        <f>+PaisOrigen!C57</f>
-        <v>DMA</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="33"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="50" t="str">
-        <f>+PaisOrigen!C58</f>
-        <v>ECU</v>
-      </c>
-      <c r="C58" s="33">
-        <v>593</v>
-      </c>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="33"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="50" t="str">
-        <f>+PaisOrigen!C59</f>
-        <v>EGY</v>
-      </c>
-      <c r="C59" s="33">
-        <v>20</v>
-      </c>
-      <c r="D59" s="33"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="33"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="50" t="str">
-        <f>+PaisOrigen!C60</f>
-        <v>SLV</v>
-      </c>
-      <c r="C60" s="33">
-        <v>503</v>
-      </c>
-      <c r="D60" s="33"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="33"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="50" t="str">
-        <f>+PaisOrigen!C61</f>
-        <v>ARE</v>
-      </c>
-      <c r="C61" s="33">
-        <v>971</v>
-      </c>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="33"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="50" t="str">
-        <f>+PaisOrigen!C62</f>
-        <v>ERI</v>
-      </c>
-      <c r="C62" s="33">
-        <v>291</v>
-      </c>
-      <c r="D62" s="33"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="50" t="str">
-        <f>+PaisOrigen!C63</f>
-        <v>SVK</v>
-      </c>
-      <c r="C63" s="33">
-        <v>421</v>
-      </c>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="33"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="50" t="str">
-        <f>+PaisOrigen!C64</f>
-        <v>SVN</v>
-      </c>
-      <c r="C64" s="33">
-        <v>386</v>
-      </c>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="33"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="50" t="str">
-        <f>+PaisOrigen!C65</f>
-        <v>ESP</v>
-      </c>
-      <c r="C65" s="33">
-        <v>34</v>
-      </c>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="33"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="50" t="str">
-        <f>+PaisOrigen!C66</f>
-        <v>USA</v>
-      </c>
-      <c r="C66" s="33">
-        <v>1</v>
-      </c>
-      <c r="D66" s="33"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="33"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="50" t="str">
-        <f>+PaisOrigen!C67</f>
-        <v>EST</v>
-      </c>
-      <c r="C67" s="33">
-        <v>372</v>
-      </c>
-      <c r="D67" s="33"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="50" t="str">
-        <f>+PaisOrigen!C68</f>
-        <v>ETH</v>
-      </c>
-      <c r="C68" s="33">
-        <v>251</v>
-      </c>
-      <c r="D68" s="33"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="33"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="50" t="str">
-        <f>+PaisOrigen!C69</f>
-        <v>PHL</v>
-      </c>
-      <c r="C69" s="33">
-        <v>63</v>
-      </c>
-      <c r="D69" s="33"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="33"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="50" t="str">
-        <f>+PaisOrigen!C70</f>
-        <v>FIN</v>
-      </c>
-      <c r="C70" s="33">
-        <v>358</v>
-      </c>
-      <c r="D70" s="33"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="33"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="50" t="str">
-        <f>+PaisOrigen!C71</f>
-        <v>FJI</v>
-      </c>
-      <c r="C71" s="33">
-        <v>679</v>
-      </c>
-      <c r="D71" s="33"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="33"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="50" t="str">
-        <f>+PaisOrigen!C72</f>
-        <v>FRA</v>
-      </c>
-      <c r="C72" s="33">
-        <v>33</v>
-      </c>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="50" t="str">
-        <f>+PaisOrigen!C73</f>
-        <v>GAB</v>
-      </c>
-      <c r="C73" s="33">
-        <v>241</v>
-      </c>
-      <c r="D73" s="33"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="33"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="50" t="str">
-        <f>+PaisOrigen!C74</f>
-        <v>GMB</v>
-      </c>
-      <c r="C74" s="33">
-        <v>220</v>
-      </c>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="33"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="50" t="str">
-        <f>+PaisOrigen!C75</f>
-        <v>GEO</v>
-      </c>
-      <c r="C75" s="33">
-        <v>995</v>
-      </c>
-      <c r="D75" s="33"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="33"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="50" t="str">
-        <f>+PaisOrigen!C76</f>
-        <v>GHA</v>
-      </c>
-      <c r="C76" s="33">
-        <v>233</v>
-      </c>
-      <c r="D76" s="33"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="33"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="50" t="str">
-        <f>+PaisOrigen!C77</f>
-        <v>GIB</v>
-      </c>
-      <c r="C77" s="33">
-        <v>350</v>
-      </c>
-      <c r="D77" s="33"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="33"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="50" t="str">
-        <f>+PaisOrigen!C78</f>
-        <v>GRD</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="D78" s="33"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="33"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="50" t="str">
-        <f>+PaisOrigen!C79</f>
-        <v>GRC</v>
-      </c>
-      <c r="C79" s="33">
-        <v>30</v>
-      </c>
-      <c r="D79" s="33"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="33"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="50" t="str">
-        <f>+PaisOrigen!C80</f>
-        <v>GRL</v>
-      </c>
-      <c r="C80" s="33">
-        <v>299</v>
-      </c>
-      <c r="D80" s="33"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="33"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="50" t="str">
-        <f>+PaisOrigen!C81</f>
-        <v>GLP</v>
-      </c>
-      <c r="C81" s="33">
-        <v>590</v>
-      </c>
-      <c r="D81" s="33"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="33"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="50" t="str">
-        <f>+PaisOrigen!C82</f>
-        <v>GUM</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D82" s="33"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="33"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="50" t="str">
-        <f>+PaisOrigen!C83</f>
-        <v>GTM</v>
-      </c>
-      <c r="C83" s="33">
-        <v>502</v>
-      </c>
-      <c r="D83" s="33"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="33"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="50" t="str">
-        <f>+PaisOrigen!C84</f>
-        <v>GUF</v>
-      </c>
-      <c r="C84" s="33">
-        <v>594</v>
-      </c>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="33"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="50" t="str">
-        <f>+PaisOrigen!C85</f>
-        <v>GGY</v>
-      </c>
-      <c r="C85" s="33">
-        <v>44</v>
-      </c>
-      <c r="D85" s="33"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="33"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="50" t="str">
-        <f>+PaisOrigen!C86</f>
-        <v>GIN</v>
-      </c>
-      <c r="C86" s="33">
-        <v>224</v>
-      </c>
-      <c r="D86" s="33"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="33"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="50" t="str">
-        <f>+PaisOrigen!C87</f>
-        <v>GNQ</v>
-      </c>
-      <c r="C87" s="33">
-        <v>240</v>
-      </c>
-      <c r="D87" s="33"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="33"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="50" t="str">
-        <f>+PaisOrigen!C88</f>
-        <v>GNB</v>
-      </c>
-      <c r="C88" s="33">
-        <v>245</v>
-      </c>
-      <c r="D88" s="33"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="33"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="50" t="str">
-        <f>+PaisOrigen!C89</f>
-        <v>GUY</v>
-      </c>
-      <c r="C89" s="33">
-        <v>592</v>
-      </c>
-      <c r="D89" s="33"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="33"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="50" t="str">
-        <f>+PaisOrigen!C90</f>
-        <v>HTI</v>
-      </c>
-      <c r="C90" s="33">
-        <v>509</v>
-      </c>
-      <c r="D90" s="33"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="33"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="50" t="str">
-        <f>+PaisOrigen!C91</f>
-        <v>HND</v>
-      </c>
-      <c r="C91" s="33">
-        <v>504</v>
-      </c>
-      <c r="D91" s="33"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="33"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="50" t="str">
-        <f>+PaisOrigen!C92</f>
-        <v>HKG</v>
-      </c>
-      <c r="C92" s="33">
-        <v>852</v>
-      </c>
-      <c r="D92" s="33"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="33"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="50" t="str">
-        <f>+PaisOrigen!C93</f>
-        <v>HUN</v>
-      </c>
-      <c r="C93" s="33">
-        <v>36</v>
-      </c>
-      <c r="D93" s="33"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="33"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="50" t="str">
-        <f>+PaisOrigen!C94</f>
-        <v>IND</v>
-      </c>
-      <c r="C94" s="33">
-        <v>91</v>
-      </c>
-      <c r="D94" s="33"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="33"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="50" t="str">
-        <f>+PaisOrigen!C95</f>
-        <v>IDN</v>
-      </c>
-      <c r="C95" s="33">
-        <v>62</v>
-      </c>
-      <c r="D95" s="33"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="33"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="50" t="str">
-        <f>+PaisOrigen!C96</f>
-        <v>IRN</v>
-      </c>
-      <c r="C96" s="33">
-        <v>98</v>
-      </c>
-      <c r="D96" s="33"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="33"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="50" t="str">
-        <f>+PaisOrigen!C97</f>
-        <v>IRQ</v>
-      </c>
-      <c r="C97" s="33">
-        <v>964</v>
-      </c>
-      <c r="D97" s="33"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="33"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="50" t="str">
-        <f>+PaisOrigen!C98</f>
-        <v>IRL</v>
-      </c>
-      <c r="C98" s="33">
-        <v>353</v>
-      </c>
-      <c r="D98" s="33"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="33"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="50" t="str">
-        <f>+PaisOrigen!C99</f>
-        <v>IMN</v>
-      </c>
-      <c r="C99" s="33">
-        <v>44</v>
-      </c>
-      <c r="D99" s="33"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="33"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="50" t="str">
-        <f>+PaisOrigen!C100</f>
-        <v>CXR</v>
-      </c>
-      <c r="C100" s="33">
-        <v>61</v>
-      </c>
-      <c r="D100" s="33"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="33"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="50" t="str">
-        <f>+PaisOrigen!C101</f>
-        <v>NFK</v>
-      </c>
-      <c r="C101" s="33">
-        <v>672</v>
-      </c>
-      <c r="D101" s="33"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="33"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="50" t="str">
-        <f>+PaisOrigen!C102</f>
-        <v>ISL</v>
-      </c>
-      <c r="C102" s="33">
-        <v>354</v>
-      </c>
-      <c r="D102" s="33"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="33"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="50" t="str">
-        <f>+PaisOrigen!C103</f>
-        <v>BMU</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D103" s="33"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="33"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="50" t="str">
-        <f>+PaisOrigen!C104</f>
-        <v>CYM</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="33"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="33"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="50" t="str">
-        <f>+PaisOrigen!C105</f>
-        <v>CCK</v>
-      </c>
-      <c r="C105" s="33">
-        <v>61</v>
-      </c>
-      <c r="D105" s="33"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="33"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="50" t="str">
-        <f>+PaisOrigen!C106</f>
-        <v>COK</v>
-      </c>
-      <c r="C106" s="33">
-        <v>682</v>
-      </c>
-      <c r="D106" s="33"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="33"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="50" t="str">
-        <f>+PaisOrigen!C107</f>
-        <v>ALA</v>
-      </c>
-      <c r="C107" s="33">
-        <v>358</v>
-      </c>
-      <c r="D107" s="33"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="33"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="50" t="str">
-        <f>+PaisOrigen!C108</f>
-        <v>FRO</v>
-      </c>
-      <c r="C108" s="33">
-        <v>298</v>
-      </c>
-      <c r="D108" s="33"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="33"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="50" t="str">
-        <f>+PaisOrigen!C109</f>
-        <v>SGS</v>
-      </c>
-      <c r="C109" s="33">
-        <v>500</v>
-      </c>
-      <c r="D109" s="33"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="33"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="50" t="str">
-        <f>+PaisOrigen!C110</f>
-        <v>MDV</v>
-      </c>
-      <c r="C110" s="33">
-        <v>960</v>
-      </c>
-      <c r="D110" s="33"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="33"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="50" t="str">
-        <f>+PaisOrigen!C111</f>
-        <v>FLK</v>
-      </c>
-      <c r="C111" s="33">
-        <v>500</v>
-      </c>
-      <c r="D111" s="33"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="33"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="50" t="str">
-        <f>+PaisOrigen!C112</f>
-        <v>MNP</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="D112" s="33"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="33"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="50" t="str">
-        <f>+PaisOrigen!C113</f>
-        <v>MHL</v>
-      </c>
-      <c r="C113" s="33">
-        <v>692</v>
-      </c>
-      <c r="D113" s="33"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="33"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="50" t="str">
-        <f>+PaisOrigen!C114</f>
-        <v>PCN</v>
-      </c>
-      <c r="C114" s="33">
-        <v>870</v>
-      </c>
-      <c r="D114" s="33"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="33"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="50" t="str">
-        <f>+PaisOrigen!C115</f>
-        <v>SLB</v>
-      </c>
-      <c r="C115" s="33">
-        <v>677</v>
-      </c>
-      <c r="D115" s="33"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="33"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="50" t="str">
-        <f>+PaisOrigen!C116</f>
-        <v>TCA</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="D116" s="33"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="33"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="50" t="str">
-        <f>+PaisOrigen!C117</f>
-        <v>UMI</v>
-      </c>
-      <c r="C117" s="33">
-        <v>246</v>
-      </c>
-      <c r="D117" s="33"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="33"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="50" t="str">
-        <f>+PaisOrigen!C118</f>
-        <v>VGB</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="D118" s="33"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="33"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="50" t="str">
-        <f>+PaisOrigen!C119</f>
-        <v>VIR</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="D119" s="33"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="33"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="50" t="str">
-        <f>+PaisOrigen!C120</f>
-        <v>ISR</v>
-      </c>
-      <c r="C120" s="33">
-        <v>972</v>
-      </c>
-      <c r="D120" s="33"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="33"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="50" t="str">
-        <f>+PaisOrigen!C121</f>
-        <v>ITA</v>
-      </c>
-      <c r="C121" s="33">
-        <v>39</v>
-      </c>
-      <c r="D121" s="33"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="33"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="50" t="str">
-        <f>+PaisOrigen!C122</f>
-        <v>JAM</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="D122" s="33"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="33"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="50" t="str">
-        <f>+PaisOrigen!C123</f>
-        <v>JPN</v>
-      </c>
-      <c r="C123" s="33">
-        <v>81</v>
-      </c>
-      <c r="D123" s="33"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="33"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="50" t="str">
-        <f>+PaisOrigen!C124</f>
-        <v>JEY</v>
-      </c>
-      <c r="C124" s="33">
-        <v>44</v>
-      </c>
-      <c r="D124" s="33"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="33"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="50" t="str">
-        <f>+PaisOrigen!C125</f>
-        <v>JOR</v>
-      </c>
-      <c r="C125" s="33">
-        <v>962</v>
-      </c>
-      <c r="D125" s="33"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="33"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="50" t="str">
-        <f>+PaisOrigen!C126</f>
-        <v>KAZ</v>
-      </c>
-      <c r="C126" s="33">
-        <v>7</v>
-      </c>
-      <c r="D126" s="33"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="33"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="50" t="str">
-        <f>+PaisOrigen!C127</f>
-        <v>KEN</v>
-      </c>
-      <c r="C127" s="33">
-        <v>254</v>
-      </c>
-      <c r="D127" s="33"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="33"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="50" t="str">
-        <f>+PaisOrigen!C128</f>
-        <v>KGZ</v>
-      </c>
-      <c r="C128" s="33">
-        <v>996</v>
-      </c>
-      <c r="D128" s="33"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="33"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="50" t="str">
-        <f>+PaisOrigen!C129</f>
-        <v>KIR</v>
-      </c>
-      <c r="C129" s="33">
-        <v>686</v>
-      </c>
-      <c r="D129" s="33"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="33"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="50" t="str">
-        <f>+PaisOrigen!C130</f>
-        <v>KWT</v>
-      </c>
-      <c r="C130" s="33">
-        <v>965</v>
-      </c>
-      <c r="D130" s="33"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="33"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="50" t="str">
-        <f>+PaisOrigen!C131</f>
-        <v>LBN</v>
-      </c>
-      <c r="C131" s="33">
-        <v>961</v>
-      </c>
-      <c r="D131" s="33"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="33"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="50" t="str">
-        <f>+PaisOrigen!C132</f>
-        <v>LAO</v>
-      </c>
-      <c r="C132" s="33">
-        <v>856</v>
-      </c>
-      <c r="D132" s="33"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="33"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="50" t="str">
-        <f>+PaisOrigen!C133</f>
-        <v>LSO</v>
-      </c>
-      <c r="C133" s="33">
-        <v>266</v>
-      </c>
-      <c r="D133" s="33"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="33"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="50" t="str">
-        <f>+PaisOrigen!C134</f>
-        <v>LVA</v>
-      </c>
-      <c r="C134" s="33">
-        <v>371</v>
-      </c>
-      <c r="D134" s="33"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="33"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="50" t="str">
-        <f>+PaisOrigen!C135</f>
-        <v>LBR</v>
-      </c>
-      <c r="C135" s="33">
-        <v>231</v>
-      </c>
-      <c r="D135" s="33"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="33"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="50" t="str">
-        <f>+PaisOrigen!C136</f>
-        <v>LBY</v>
-      </c>
-      <c r="C136" s="33">
-        <v>218</v>
-      </c>
-      <c r="D136" s="33"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="33"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="50" t="str">
-        <f>+PaisOrigen!C137</f>
-        <v>LIE</v>
-      </c>
-      <c r="C137" s="33">
-        <v>423</v>
-      </c>
-      <c r="D137" s="33"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="33"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="50" t="str">
-        <f>+PaisOrigen!C138</f>
-        <v>LTU</v>
-      </c>
-      <c r="C138" s="33">
-        <v>370</v>
-      </c>
-      <c r="D138" s="33"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="33"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="50" t="str">
-        <f>+PaisOrigen!C139</f>
-        <v>LUX</v>
-      </c>
-      <c r="C139" s="33">
-        <v>352</v>
-      </c>
-      <c r="D139" s="33"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="33"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="50" t="str">
-        <f>+PaisOrigen!C140</f>
-        <v>MEX</v>
-      </c>
-      <c r="C140" s="33">
-        <v>52</v>
-      </c>
-      <c r="D140" s="33"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="33"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="50" t="str">
-        <f>+PaisOrigen!C141</f>
-        <v>MCO</v>
-      </c>
-      <c r="C141" s="33">
-        <v>377</v>
-      </c>
-      <c r="D141" s="33"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="33"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="50" t="str">
-        <f>+PaisOrigen!C142</f>
-        <v>MAC</v>
-      </c>
-      <c r="C142" s="33">
-        <v>853</v>
-      </c>
-      <c r="D142" s="33"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="33"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="50" t="str">
-        <f>+PaisOrigen!C143</f>
-        <v>MKD</v>
-      </c>
-      <c r="C143" s="33">
-        <v>389</v>
-      </c>
-      <c r="D143" s="33"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="33"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="50" t="str">
-        <f>+PaisOrigen!C144</f>
-        <v>MDG</v>
-      </c>
-      <c r="C144" s="33">
-        <v>261</v>
-      </c>
-      <c r="D144" s="33"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="33"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="50" t="str">
-        <f>+PaisOrigen!C145</f>
-        <v>MYS</v>
-      </c>
-      <c r="C145" s="33">
-        <v>60</v>
-      </c>
-      <c r="D145" s="33"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="33"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="50" t="str">
-        <f>+PaisOrigen!C146</f>
-        <v>MWI</v>
-      </c>
-      <c r="C146" s="33">
-        <v>265</v>
-      </c>
-      <c r="D146" s="33"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="33"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="50" t="str">
-        <f>+PaisOrigen!C147</f>
-        <v>MLI</v>
-      </c>
-      <c r="C147" s="33">
-        <v>223</v>
-      </c>
-      <c r="D147" s="33"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="33"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="50" t="str">
-        <f>+PaisOrigen!C148</f>
-        <v>MLT</v>
-      </c>
-      <c r="C148" s="33">
-        <v>356</v>
-      </c>
-      <c r="D148" s="33"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="33"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="50" t="str">
-        <f>+PaisOrigen!C149</f>
-        <v>MAR</v>
-      </c>
-      <c r="C149" s="33">
-        <v>212</v>
-      </c>
-      <c r="D149" s="33"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="33"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="50" t="str">
-        <f>+PaisOrigen!C150</f>
-        <v>MTQ</v>
-      </c>
-      <c r="C150" s="33">
-        <v>596</v>
-      </c>
-      <c r="D150" s="33"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="33"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="50" t="str">
-        <f>+PaisOrigen!C151</f>
-        <v>MUS</v>
-      </c>
-      <c r="C151" s="33">
-        <v>230</v>
-      </c>
-      <c r="D151" s="33"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="33"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="50" t="str">
-        <f>+PaisOrigen!C152</f>
-        <v>MRT</v>
-      </c>
-      <c r="C152" s="33">
-        <v>222</v>
-      </c>
-      <c r="D152" s="33"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="33"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="50" t="str">
-        <f>+PaisOrigen!C153</f>
-        <v>MYT</v>
-      </c>
-      <c r="C153" s="33">
-        <v>262</v>
-      </c>
-      <c r="D153" s="33"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="33"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="50" t="str">
-        <f>+PaisOrigen!C154</f>
-        <v>FSM</v>
-      </c>
-      <c r="C154" s="33">
-        <v>691</v>
-      </c>
-      <c r="D154" s="33"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="33"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="50" t="str">
-        <f>+PaisOrigen!C155</f>
-        <v>MDA</v>
-      </c>
-      <c r="C155" s="33">
-        <v>373</v>
-      </c>
-      <c r="D155" s="33"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="33"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="50" t="str">
-        <f>+PaisOrigen!C156</f>
-        <v>MNG</v>
-      </c>
-      <c r="C156" s="33">
-        <v>976</v>
-      </c>
-      <c r="D156" s="33"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="33"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="50" t="str">
-        <f>+PaisOrigen!C157</f>
-        <v>MNE</v>
-      </c>
-      <c r="C157" s="33">
-        <v>382</v>
-      </c>
-      <c r="D157" s="33"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="33"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="50" t="str">
-        <f>+PaisOrigen!C158</f>
-        <v>MSR</v>
-      </c>
-      <c r="C158" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="D158" s="33"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="33"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="50" t="str">
-        <f>+PaisOrigen!C159</f>
-        <v>MOZ</v>
-      </c>
-      <c r="C159" s="33">
-        <v>258</v>
-      </c>
-      <c r="D159" s="33"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B159" s="33"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="50" t="str">
-        <f>+PaisOrigen!C160</f>
-        <v>NAM</v>
-      </c>
-      <c r="C160" s="33">
-        <v>264</v>
-      </c>
-      <c r="D160" s="33"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="33"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="50" t="str">
-        <f>+PaisOrigen!C161</f>
-        <v>NRU</v>
-      </c>
-      <c r="C161" s="33">
-        <v>674</v>
-      </c>
-      <c r="D161" s="33"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="33"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="50" t="str">
-        <f>+PaisOrigen!C162</f>
-        <v>NPL</v>
-      </c>
-      <c r="C162" s="33">
-        <v>977</v>
-      </c>
-      <c r="D162" s="33"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="33"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="50" t="str">
-        <f>+PaisOrigen!C163</f>
-        <v>NIC</v>
-      </c>
-      <c r="C163" s="33">
-        <v>505</v>
-      </c>
-      <c r="D163" s="33"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="33"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="50" t="str">
-        <f>+PaisOrigen!C164</f>
-        <v>NER</v>
-      </c>
-      <c r="C164" s="33">
-        <v>227</v>
-      </c>
-      <c r="D164" s="33"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="33"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="50" t="str">
-        <f>+PaisOrigen!C165</f>
-        <v>NGA</v>
-      </c>
-      <c r="C165" s="33">
-        <v>234</v>
-      </c>
-      <c r="D165" s="33"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="33"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="50" t="str">
-        <f>+PaisOrigen!C166</f>
-        <v>NIU</v>
-      </c>
-      <c r="C166" s="33">
-        <v>683</v>
-      </c>
-      <c r="D166" s="33"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="33"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="50" t="str">
-        <f>+PaisOrigen!C167</f>
-        <v>NOR</v>
-      </c>
-      <c r="C167" s="33">
-        <v>47</v>
-      </c>
-      <c r="D167" s="33"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="33"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="50" t="str">
-        <f>+PaisOrigen!C168</f>
-        <v>NCL</v>
-      </c>
-      <c r="C168" s="33">
-        <v>687</v>
-      </c>
-      <c r="D168" s="33"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="33"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="50" t="str">
-        <f>+PaisOrigen!C169</f>
-        <v>NZL</v>
-      </c>
-      <c r="C169" s="33">
-        <v>64</v>
-      </c>
-      <c r="D169" s="33"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="33"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="50" t="str">
-        <f>+PaisOrigen!C170</f>
-        <v>OMN</v>
-      </c>
-      <c r="C170" s="33">
-        <v>968</v>
-      </c>
-      <c r="D170" s="33"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="33"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="50" t="str">
-        <f>+PaisOrigen!C171</f>
-        <v>NLD</v>
-      </c>
-      <c r="C171" s="33">
-        <v>31</v>
-      </c>
-      <c r="D171" s="33"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="33"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="50" t="str">
-        <f>+PaisOrigen!C172</f>
-        <v>PAK</v>
-      </c>
-      <c r="C172" s="33">
-        <v>92</v>
-      </c>
-      <c r="D172" s="33"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="33"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="50" t="str">
-        <f>+PaisOrigen!C173</f>
-        <v>PLW</v>
-      </c>
-      <c r="C173" s="33">
-        <v>680</v>
-      </c>
-      <c r="D173" s="33"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="33"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="50" t="str">
-        <f>+PaisOrigen!C174</f>
-        <v>PSE</v>
-      </c>
-      <c r="C174" s="33">
-        <v>970</v>
-      </c>
-      <c r="D174" s="33"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="33"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="50" t="str">
-        <f>+PaisOrigen!C175</f>
-        <v>PAN</v>
-      </c>
-      <c r="C175" s="33">
-        <v>507</v>
-      </c>
-      <c r="D175" s="33"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="33"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="50" t="str">
-        <f>+PaisOrigen!C176</f>
-        <v>PNG</v>
-      </c>
-      <c r="C176" s="33">
-        <v>675</v>
-      </c>
-      <c r="D176" s="33"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="33"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="50" t="str">
-        <f>+PaisOrigen!C177</f>
-        <v>PRY</v>
-      </c>
-      <c r="C177" s="33">
-        <v>595</v>
-      </c>
-      <c r="D177" s="33"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="33"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="50" t="str">
-        <f>+PaisOrigen!C178</f>
-        <v>PER</v>
-      </c>
-      <c r="C178" s="33">
-        <v>51</v>
-      </c>
-      <c r="D178" s="33"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="33"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="50" t="str">
-        <f>+PaisOrigen!C179</f>
-        <v>PYF</v>
-      </c>
-      <c r="C179" s="33">
-        <v>689</v>
-      </c>
-      <c r="D179" s="33"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B179" s="33"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="50" t="str">
-        <f>+PaisOrigen!C180</f>
-        <v>POL</v>
-      </c>
-      <c r="C180" s="33">
-        <v>48</v>
-      </c>
-      <c r="D180" s="33"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="33"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="50" t="str">
-        <f>+PaisOrigen!C181</f>
-        <v>PRT</v>
-      </c>
-      <c r="C181" s="33">
-        <v>351</v>
-      </c>
-      <c r="D181" s="33"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B181" s="33"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="50" t="str">
-        <f>+PaisOrigen!C182</f>
-        <v>PRI</v>
-      </c>
-      <c r="C182" s="33">
-        <v>1</v>
-      </c>
-      <c r="D182" s="33"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B182" s="33"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="50" t="str">
-        <f>+PaisOrigen!C183</f>
-        <v>QAT</v>
-      </c>
-      <c r="C183" s="33">
-        <v>974</v>
-      </c>
-      <c r="D183" s="33"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B183" s="33"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>183</v>
       </c>
-      <c r="B184" s="50" t="str">
-        <f>+PaisOrigen!C184</f>
-        <v>GBR</v>
-      </c>
-      <c r="C184" s="33">
-        <v>44</v>
-      </c>
-      <c r="D184" s="33"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="33"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="50" t="str">
-        <f>+PaisOrigen!C185</f>
-        <v>CAF</v>
-      </c>
-      <c r="C185" s="33">
-        <v>236</v>
-      </c>
-      <c r="D185" s="33"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="33"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="50" t="str">
-        <f>+PaisOrigen!C186</f>
-        <v>CZE</v>
-      </c>
-      <c r="C186" s="33">
-        <v>420</v>
-      </c>
-      <c r="D186" s="33"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="33"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="50" t="str">
-        <f>+PaisOrigen!C187</f>
-        <v>DOM</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="D187" s="33"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="33"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="50" t="str">
-        <f>+PaisOrigen!C188</f>
-        <v>SSD</v>
-      </c>
-      <c r="C188" s="33">
-        <v>211</v>
-      </c>
-      <c r="D188" s="33"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B188" s="33"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>188</v>
       </c>
-      <c r="B189" s="50" t="str">
-        <f>+PaisOrigen!C189</f>
-        <v>REU</v>
-      </c>
-      <c r="C189" s="33">
-        <v>262</v>
-      </c>
-      <c r="D189" s="33"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B189" s="33"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>189</v>
       </c>
-      <c r="B190" s="50" t="str">
-        <f>+PaisOrigen!C190</f>
-        <v>RWA</v>
-      </c>
-      <c r="C190" s="33">
-        <v>250</v>
-      </c>
-      <c r="D190" s="33"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="33"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="50" t="str">
-        <f>+PaisOrigen!C191</f>
-        <v>ROU</v>
-      </c>
-      <c r="C191" s="33">
-        <v>40</v>
-      </c>
-      <c r="D191" s="33"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B191" s="33"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B192" s="50" t="str">
-        <f>+PaisOrigen!C192</f>
-        <v>RUS</v>
-      </c>
-      <c r="C192" s="33">
-        <v>7</v>
-      </c>
-      <c r="D192" s="33"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B192" s="33"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>192</v>
       </c>
-      <c r="B193" s="50" t="str">
-        <f>+PaisOrigen!C193</f>
-        <v>ESH</v>
-      </c>
-      <c r="C193" s="33">
-        <v>212</v>
-      </c>
-      <c r="D193" s="33"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="33"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>193</v>
       </c>
-      <c r="B194" s="50" t="str">
-        <f>+PaisOrigen!C194</f>
-        <v>WSM</v>
-      </c>
-      <c r="C194" s="33">
-        <v>685</v>
-      </c>
-      <c r="D194" s="33"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="33"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="50" t="str">
-        <f>+PaisOrigen!C195</f>
-        <v>ASM</v>
-      </c>
-      <c r="C195" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="D195" s="33"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="33"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>195</v>
       </c>
-      <c r="B196" s="50" t="str">
-        <f>+PaisOrigen!C196</f>
-        <v>BLM</v>
-      </c>
-      <c r="C196" s="33">
-        <v>590</v>
-      </c>
-      <c r="D196" s="33"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="33"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="50" t="str">
-        <f>+PaisOrigen!C197</f>
-        <v>KNA</v>
-      </c>
-      <c r="C197" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="D197" s="33"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B197" s="33"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>197</v>
       </c>
-      <c r="B198" s="50" t="str">
-        <f>+PaisOrigen!C198</f>
-        <v>SMR</v>
-      </c>
-      <c r="C198" s="33">
-        <v>378</v>
-      </c>
-      <c r="D198" s="33"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="33"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>198</v>
       </c>
-      <c r="B199" s="50" t="str">
-        <f>+PaisOrigen!C199</f>
-        <v>MAF</v>
-      </c>
-      <c r="C199" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="D199" s="33"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B199" s="33"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>199</v>
       </c>
-      <c r="B200" s="50" t="str">
-        <f>+PaisOrigen!C200</f>
-        <v>SPM</v>
-      </c>
-      <c r="C200" s="33">
-        <v>508</v>
-      </c>
-      <c r="D200" s="33"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="33"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>200</v>
       </c>
-      <c r="B201" s="50" t="str">
-        <f>+PaisOrigen!C201</f>
-        <v>VCT</v>
-      </c>
-      <c r="C201" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="D201" s="33"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B201" s="33"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>201</v>
       </c>
-      <c r="B202" s="50" t="str">
-        <f>+PaisOrigen!C202</f>
-        <v>SHN</v>
-      </c>
-      <c r="C202" s="33">
-        <v>290</v>
-      </c>
-      <c r="D202" s="33"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B202" s="33"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>202</v>
       </c>
-      <c r="B203" s="50" t="str">
-        <f>+PaisOrigen!C203</f>
-        <v>LCA</v>
-      </c>
-      <c r="C203" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="D203" s="33"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="33"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>203</v>
       </c>
-      <c r="B204" s="50" t="str">
-        <f>+PaisOrigen!C204</f>
-        <v>STP</v>
-      </c>
-      <c r="C204" s="33">
-        <v>239</v>
-      </c>
-      <c r="D204" s="33"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="33"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>204</v>
       </c>
-      <c r="B205" s="50" t="str">
-        <f>+PaisOrigen!C205</f>
-        <v>SEN</v>
-      </c>
-      <c r="C205" s="33">
-        <v>221</v>
-      </c>
-      <c r="D205" s="33"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="33"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="50" t="str">
-        <f>+PaisOrigen!C206</f>
-        <v>SRB</v>
-      </c>
-      <c r="C206" s="33">
-        <v>381</v>
-      </c>
-      <c r="D206" s="33"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="33"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="50" t="str">
-        <f>+PaisOrigen!C207</f>
-        <v>SYC</v>
-      </c>
-      <c r="C207" s="33">
-        <v>248</v>
-      </c>
-      <c r="D207" s="33"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="33"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="50" t="str">
-        <f>+PaisOrigen!C208</f>
-        <v>SLE</v>
-      </c>
-      <c r="C208" s="33">
-        <v>232</v>
-      </c>
-      <c r="D208" s="33"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B208" s="33"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="50" t="str">
-        <f>+PaisOrigen!C209</f>
-        <v>SGP</v>
-      </c>
-      <c r="C209" s="33">
-        <v>65</v>
-      </c>
-      <c r="D209" s="33"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="33"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="50" t="str">
-        <f>+PaisOrigen!C210</f>
-        <v>SMX</v>
-      </c>
-      <c r="C210" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="D210" s="33"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B210" s="33"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="50" t="str">
-        <f>+PaisOrigen!C211</f>
-        <v>SYR</v>
-      </c>
-      <c r="C211" s="33">
-        <v>963</v>
-      </c>
-      <c r="D211" s="33"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B211" s="33"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>211</v>
       </c>
-      <c r="B212" s="50" t="str">
-        <f>+PaisOrigen!C212</f>
-        <v>SOM</v>
-      </c>
-      <c r="C212" s="33">
-        <v>252</v>
-      </c>
-      <c r="D212" s="33"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B212" s="33"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="50" t="str">
-        <f>+PaisOrigen!C213</f>
-        <v>LKA</v>
-      </c>
-      <c r="C213" s="33">
-        <v>94</v>
-      </c>
-      <c r="D213" s="33"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B213" s="33"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="50" t="str">
-        <f>+PaisOrigen!C214</f>
-        <v>ZAF</v>
-      </c>
-      <c r="C214" s="33">
-        <v>27</v>
-      </c>
-      <c r="D214" s="33"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B214" s="33"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="50" t="str">
-        <f>+PaisOrigen!C215</f>
-        <v>SDN</v>
-      </c>
-      <c r="C215" s="33">
-        <v>249</v>
-      </c>
-      <c r="D215" s="33"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B215" s="33"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>215</v>
       </c>
-      <c r="B216" s="50" t="str">
-        <f>+PaisOrigen!C216</f>
-        <v>SWE</v>
-      </c>
-      <c r="C216" s="33">
-        <v>46</v>
-      </c>
-      <c r="D216" s="33"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B216" s="33"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>216</v>
       </c>
-      <c r="B217" s="50" t="str">
-        <f>+PaisOrigen!C217</f>
-        <v>CHE</v>
-      </c>
-      <c r="C217" s="33">
-        <v>41</v>
-      </c>
-      <c r="D217" s="33"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B217" s="33"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>217</v>
       </c>
-      <c r="B218" s="50" t="str">
-        <f>+PaisOrigen!C218</f>
-        <v>SUR</v>
-      </c>
-      <c r="C218" s="33">
-        <v>597</v>
-      </c>
-      <c r="D218" s="33"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B218" s="33"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>218</v>
       </c>
-      <c r="B219" s="50" t="str">
-        <f>+PaisOrigen!C219</f>
-        <v>SJM</v>
-      </c>
-      <c r="C219" s="33">
-        <v>47</v>
-      </c>
-      <c r="D219" s="33"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B219" s="33"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>219</v>
       </c>
-      <c r="B220" s="50" t="str">
-        <f>+PaisOrigen!C220</f>
-        <v>SWZ</v>
-      </c>
-      <c r="C220" s="33">
-        <v>268</v>
-      </c>
-      <c r="D220" s="33"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B220" s="33"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>220</v>
       </c>
-      <c r="B221" s="50" t="str">
-        <f>+PaisOrigen!C221</f>
-        <v>TJK</v>
-      </c>
-      <c r="C221" s="33">
-        <v>992</v>
-      </c>
-      <c r="D221" s="33"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B221" s="33"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>221</v>
       </c>
-      <c r="B222" s="50" t="str">
-        <f>+PaisOrigen!C222</f>
-        <v>THA</v>
-      </c>
-      <c r="C222" s="33">
-        <v>66</v>
-      </c>
-      <c r="D222" s="33"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="33"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>222</v>
       </c>
-      <c r="B223" s="50" t="str">
-        <f>+PaisOrigen!C223</f>
-        <v>TWN</v>
-      </c>
-      <c r="C223" s="33">
-        <v>886</v>
-      </c>
-      <c r="D223" s="33"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="33"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>223</v>
       </c>
-      <c r="B224" s="50" t="str">
-        <f>+PaisOrigen!C224</f>
-        <v>TZA</v>
-      </c>
-      <c r="C224" s="33">
-        <v>255</v>
-      </c>
-      <c r="D224" s="33"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="33"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>224</v>
       </c>
-      <c r="B225" s="50" t="str">
-        <f>+PaisOrigen!C225</f>
-        <v>IOT</v>
-      </c>
-      <c r="C225" s="33">
-        <v>246</v>
-      </c>
-      <c r="D225" s="33"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B225" s="33"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>225</v>
       </c>
-      <c r="B226" s="50" t="str">
-        <f>+PaisOrigen!C226</f>
-        <v>TLS</v>
-      </c>
-      <c r="C226" s="33">
-        <v>670</v>
-      </c>
-      <c r="D226" s="33"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B226" s="33"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>226</v>
       </c>
-      <c r="B227" s="50" t="str">
-        <f>+PaisOrigen!C227</f>
-        <v>TGO</v>
-      </c>
-      <c r="C227" s="33">
-        <v>228</v>
-      </c>
-      <c r="D227" s="33"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="33"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>227</v>
       </c>
-      <c r="B228" s="50" t="str">
-        <f>+PaisOrigen!C228</f>
-        <v>TKL</v>
-      </c>
-      <c r="C228" s="33">
-        <v>690</v>
-      </c>
-      <c r="D228" s="33"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B228" s="33"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>228</v>
       </c>
-      <c r="B229" s="50" t="str">
-        <f>+PaisOrigen!C229</f>
-        <v>TON</v>
-      </c>
-      <c r="C229" s="33">
-        <v>676</v>
-      </c>
-      <c r="D229" s="33"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B229" s="33"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>229</v>
       </c>
-      <c r="B230" s="50" t="str">
-        <f>+PaisOrigen!C230</f>
-        <v>TTO</v>
-      </c>
-      <c r="C230" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="D230" s="33"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B230" s="33"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>230</v>
       </c>
-      <c r="B231" s="50" t="str">
-        <f>+PaisOrigen!C231</f>
-        <v>TUN</v>
-      </c>
-      <c r="C231" s="33">
-        <v>216</v>
-      </c>
-      <c r="D231" s="33"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B231" s="33"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>231</v>
       </c>
-      <c r="B232" s="50" t="str">
-        <f>+PaisOrigen!C232</f>
-        <v>TKM</v>
-      </c>
-      <c r="C232" s="33">
-        <v>993</v>
-      </c>
-      <c r="D232" s="33"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B232" s="33"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>232</v>
       </c>
-      <c r="B233" s="50" t="str">
-        <f>+PaisOrigen!C233</f>
-        <v>TUR</v>
-      </c>
-      <c r="C233" s="33">
-        <v>90</v>
-      </c>
-      <c r="D233" s="33"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="33"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>233</v>
       </c>
-      <c r="B234" s="50" t="str">
-        <f>+PaisOrigen!C234</f>
-        <v>TUV</v>
-      </c>
-      <c r="C234" s="33">
-        <v>688</v>
-      </c>
-      <c r="D234" s="33"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B234" s="33"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>234</v>
       </c>
-      <c r="B235" s="50" t="str">
-        <f>+PaisOrigen!C235</f>
-        <v>UKR</v>
-      </c>
-      <c r="C235" s="33">
-        <v>380</v>
-      </c>
-      <c r="D235" s="33"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B235" s="33"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>235</v>
       </c>
-      <c r="B236" s="50" t="str">
-        <f>+PaisOrigen!C236</f>
-        <v>UGA</v>
-      </c>
-      <c r="C236" s="33">
-        <v>256</v>
-      </c>
-      <c r="D236" s="33"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B236" s="33"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>236</v>
       </c>
-      <c r="B237" s="50" t="str">
-        <f>+PaisOrigen!C237</f>
-        <v>URY</v>
-      </c>
-      <c r="C237" s="33">
-        <v>598</v>
-      </c>
-      <c r="D237" s="33"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B237" s="33"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>237</v>
       </c>
-      <c r="B238" s="50" t="str">
-        <f>+PaisOrigen!C238</f>
-        <v>UZB</v>
-      </c>
-      <c r="C238" s="33">
-        <v>998</v>
-      </c>
-      <c r="D238" s="33"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B238" s="33"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>238</v>
       </c>
-      <c r="B239" s="50" t="str">
-        <f>+PaisOrigen!C239</f>
-        <v>VUT</v>
-      </c>
-      <c r="C239" s="33">
-        <v>678</v>
-      </c>
-      <c r="D239" s="33"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B239" s="33"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>239</v>
       </c>
-      <c r="B240" s="50" t="str">
-        <f>+PaisOrigen!C240</f>
-        <v>VEN</v>
-      </c>
-      <c r="C240" s="33">
-        <v>58</v>
-      </c>
-      <c r="D240" s="33"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B240" s="33"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>240</v>
       </c>
-      <c r="B241" s="50" t="str">
-        <f>+PaisOrigen!C241</f>
-        <v>VNM</v>
-      </c>
-      <c r="C241" s="33">
-        <v>84</v>
-      </c>
-      <c r="D241" s="33"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B241" s="33"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>241</v>
       </c>
-      <c r="B242" s="50" t="str">
-        <f>+PaisOrigen!C242</f>
-        <v>WLF</v>
-      </c>
-      <c r="C242" s="33">
-        <v>681</v>
-      </c>
-      <c r="D242" s="33"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B242" s="33"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>242</v>
       </c>
-      <c r="B243" s="50" t="str">
-        <f>+PaisOrigen!C243</f>
-        <v>YEM</v>
-      </c>
-      <c r="C243" s="33">
-        <v>967</v>
-      </c>
-      <c r="D243" s="33"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B243" s="33"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>243</v>
       </c>
-      <c r="B244" s="50" t="str">
-        <f>+PaisOrigen!C244</f>
-        <v>DJI</v>
-      </c>
-      <c r="C244" s="33">
-        <v>253</v>
-      </c>
-      <c r="D244" s="33"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B244" s="33"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>244</v>
       </c>
-      <c r="B245" s="50" t="str">
-        <f>+PaisOrigen!C245</f>
-        <v>ZMB</v>
-      </c>
-      <c r="C245" s="33">
-        <v>260</v>
-      </c>
-      <c r="D245" s="33"/>
-    </row>
-    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B245" s="33"/>
+    </row>
+    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>245</v>
       </c>
-      <c r="B246" s="50" t="str">
-        <f>+PaisOrigen!C246</f>
-        <v>ZWE</v>
-      </c>
-      <c r="C246" s="34">
-        <v>263</v>
-      </c>
-      <c r="D246" s="34"/>
+      <c r="B246" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="H8:I9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J8:K9" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{ADC79E86-7BAC-42AE-A32B-16CA097C3B2B}"/>
+    <hyperlink ref="H8:I9" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{ADC79E86-7BAC-42AE-A32B-16CA097C3B2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11028,14 +10022,14 @@
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11171,10 +10165,10 @@
       <c r="D7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -11189,8 +10183,8 @@
       <c r="D8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11277,14 +10271,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11438,14 +10432,14 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="54"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/1.1_Muestreo de datos Restaurante - 2.xlsx
+++ b/1.1_Muestreo de datos Restaurante - 2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC4890-6253-42CE-8F6E-783DCA64E538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC3149-1F94-4A4B-90FE-0F20395718DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="3" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="12" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos Dominio" sheetId="1" r:id="rId1"/>
     <sheet name="TipoIdentificacion" sheetId="2" r:id="rId2"/>
     <sheet name="Cliente" sheetId="3" r:id="rId3"/>
-    <sheet name="PaisOrigen" sheetId="21" r:id="rId4"/>
+    <sheet name="Pais" sheetId="21" r:id="rId4"/>
     <sheet name="NumeroCelular" sheetId="19" r:id="rId5"/>
     <sheet name="Usuario" sheetId="8" state="hidden" r:id="rId6"/>
     <sheet name="Permiso" sheetId="9" state="hidden" r:id="rId7"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="694">
   <si>
     <t>Mapa de Contexto:</t>
   </si>
@@ -2127,6 +2127,9 @@
   </si>
   <si>
     <t>NumeroIdentificacion</t>
+  </si>
+  <si>
+    <t>Pais</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3364,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3447,7 +3450,7 @@
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>689</v>
@@ -3472,7 +3475,7 @@
     <hyperlink ref="A4" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{B315D496-1A8D-49EA-B1E2-B73E7EF23DF1}"/>
     <hyperlink ref="A5" location="Cliente!A1" display="Cliente" xr:uid="{5C3CCB0C-4734-470A-B834-D3CE7F101536}"/>
     <hyperlink ref="E6" location="Subcategoria!A1" display="Subcategoria" xr:uid="{F5994BAA-AE9E-4166-8F19-DED07A2E1EF3}"/>
-    <hyperlink ref="A6" location="PaisOrigen!A1" display="PaisOrigen" xr:uid="{F311D0ED-0AE8-4CA9-AEB0-50D5B4B6D50B}"/>
+    <hyperlink ref="A6" location="Pais!A1" display="Pais" xr:uid="{F311D0ED-0AE8-4CA9-AEB0-50D5B4B6D50B}"/>
     <hyperlink ref="A7" location="NumeroCelular!A1" display="NumeroCelular" xr:uid="{52CA84BB-5E26-435B-B855-06C24B08DADC}"/>
     <hyperlink ref="E5" location="Categoria!A1" display="Categoria" xr:uid="{29F11BB7-B91D-465F-A72A-ED9A1FC9E47E}"/>
     <hyperlink ref="E4" location="Menu!A1" display="Menu" xr:uid="{3B9CE989-965A-4846-A851-B194282A2B71}"/>
@@ -4105,7 +4108,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4358,10 +4361,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4375,14 +4378,15 @@
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4411,19 +4415,22 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>679</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4448,28 +4455,28 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="str">
-        <f>+PaisOrigen!B39</f>
+      <c r="M2" t="str">
+        <f>+Pais!B39</f>
         <v>Canadá</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O4" s="55" t="s">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="52"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="56"/>
-      <c r="P5" s="54"/>
+      <c r="Q4" s="52"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="56"/>
+      <c r="Q5" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="P4:Q5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O4:P5" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{C3DB8FE7-104A-4E9F-8A7F-47DDB3F8769F}"/>
+    <hyperlink ref="P4:Q5" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{C3DB8FE7-104A-4E9F-8A7F-47DDB3F8769F}"/>
     <hyperlink ref="B2" location="TipoIdentificacion!A2" display="TipoIdentificacion!A2" xr:uid="{98C723A8-FE82-4ADA-AEF4-181858A438A5}"/>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{4716CE20-6A03-43B2-98BB-9B508C0D4BDD}"/>
   </hyperlinks>
@@ -4484,7 +4491,7 @@
   </sheetPr>
   <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -8215,7 +8222,7 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/1.1_Muestreo de datos Restaurante - 2.xlsx
+++ b/1.1_Muestreo de datos Restaurante - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC3149-1F94-4A4B-90FE-0F20395718DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A7081-8232-4B19-B8E5-EA8D02A4312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="12" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="848" activeTab="11" xr2:uid="{40AC8E7D-585C-4D3A-995A-53B8A70A601C}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos Dominio" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="OrigenReserva" sheetId="11" state="hidden" r:id="rId8"/>
     <sheet name="Pedido" sheetId="15" state="hidden" r:id="rId9"/>
     <sheet name="EstadoPedido" sheetId="16" state="hidden" r:id="rId10"/>
-    <sheet name="Menu" sheetId="23" r:id="rId11"/>
+    <sheet name="Plato" sheetId="23" r:id="rId11"/>
     <sheet name="Subcategoria" sheetId="22" r:id="rId12"/>
     <sheet name="Categoria" sheetId="6" r:id="rId13"/>
   </sheets>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="698">
   <si>
     <t>Mapa de Contexto:</t>
   </si>
@@ -2130,6 +2130,18 @@
   </si>
   <si>
     <t>Pais</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>15/08/1995</t>
+  </si>
+  <si>
+    <t>*********</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2532,8 +2544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2620,6 +2630,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3364,109 +3377,109 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="45"/>
+    <col min="1" max="1" width="17.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>654</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>629</v>
       </c>
     </row>
@@ -3525,10 +3538,10 @@
       <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -3537,8 +3550,8 @@
       <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3559,7 +3572,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3578,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>688</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>67</v>
@@ -3606,19 +3619,19 @@
       <c r="B2" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>660</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <v>40000</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>645</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="7" t="s">
         <v>686</v>
       </c>
@@ -3630,16 +3643,16 @@
       <c r="B3" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>662</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <v>15000</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>636</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>646</v>
       </c>
       <c r="G3" s="2"/>
@@ -3652,26 +3665,26 @@
       <c r="B4" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>664</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>35000</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -3680,20 +3693,20 @@
       <c r="B5" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="24">
+      <c r="C5" s="47"/>
+      <c r="D5" s="22">
         <v>30000</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="7"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -3702,17 +3715,17 @@
       <c r="B6" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="24">
+      <c r="C6" s="47"/>
+      <c r="D6" s="22">
         <v>39000</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3722,16 +3735,16 @@
       <c r="B7" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>42000</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="2"/>
@@ -3744,17 +3757,17 @@
       <c r="B8" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="24">
+      <c r="C8" s="47"/>
+      <c r="D8" s="22">
         <v>47000</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3764,17 +3777,17 @@
       <c r="B9" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="24">
+      <c r="C9" s="47"/>
+      <c r="D9" s="22">
         <v>44000</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3784,15 +3797,15 @@
       <c r="B10" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="24">
+      <c r="C10" s="47"/>
+      <c r="D10" s="22">
         <v>23000</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3802,16 +3815,16 @@
       <c r="B11" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>673</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>22000</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="45" t="s">
         <v>637</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="2"/>
       <c r="H11" s="7"/>
     </row>
@@ -3822,15 +3835,15 @@
       <c r="B12" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="24">
+      <c r="C12" s="47"/>
+      <c r="D12" s="22">
         <v>28000</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -3840,15 +3853,15 @@
       <c r="B13" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="24">
+      <c r="C13" s="47"/>
+      <c r="D13" s="22">
         <v>8500</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -3858,17 +3871,17 @@
       <c r="B14" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="24">
+      <c r="C14" s="47"/>
+      <c r="D14" s="22">
         <v>9600</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="45" t="s">
         <v>633</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3878,17 +3891,17 @@
       <c r="B15" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="25">
+      <c r="C15" s="48"/>
+      <c r="D15" s="23">
         <v>9500</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="10"/>
     </row>
   </sheetData>
@@ -3922,172 +3935,245 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="C1" s="17" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>638</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>+Categoria!$B$5</f>
+        <v>Entrada</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>639</v>
+      </c>
+      <c r="C3" s="55" t="str">
+        <f>+Categoria!$B$5</f>
+        <v>Entrada</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C4" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C5" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="C8" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C9" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="C10" s="55" t="str">
+        <f>+Categoria!$B$2</f>
+        <v>Plato Principal</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="C12" s="55" t="str">
+        <f>+Categoria!$B$4</f>
+        <v>Bebida</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="C13" s="55" t="str">
+        <f>+Categoria!$B$4</f>
+        <v>Bebida</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>649</v>
+      </c>
+      <c r="C14" s="55" t="str">
+        <f>+Categoria!$B$4</f>
+        <v>Bebida</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>640</v>
+      </c>
+      <c r="C15" s="55" t="str">
+        <f>+Categoria!$B$3</f>
+        <v>Postre</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="55" t="str">
+        <f>+Categoria!$B$3</f>
+        <v>Postre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="55" t="str">
+        <f>+Categoria!$B$3</f>
+        <v>Postre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="C18" s="55" t="str">
+        <f>+Categoria!$B$4</f>
+        <v>Bebida</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>644</v>
+      </c>
+      <c r="C19" s="56" t="str">
+        <f>+Categoria!$B$4</f>
+        <v>Bebida</v>
       </c>
     </row>
   </sheetData>
@@ -4096,6 +4182,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6:G7" location="'Objetos Dominio'!A1" display="Objetos de dominio" xr:uid="{DD10C629-04E3-442E-A5C8-A17507972A3B}"/>
+    <hyperlink ref="C2" location="Categoria!B5" display="Categoria!B5" xr:uid="{8DEAC9D9-4E29-4C46-8591-9D39E2EA19D7}"/>
+    <hyperlink ref="C3" location="Categoria!B5" display="Categoria!B5" xr:uid="{175D819E-ADBE-4264-9AED-3464EC87EB6E}"/>
+    <hyperlink ref="C4:C10" location="Categoria!B2" display="Categoria!B2" xr:uid="{4E6766DF-77E1-46DF-AC5B-607F11ED4897}"/>
+    <hyperlink ref="C12:C14" location="Categoria!B4" display="Categoria!B4" xr:uid="{ED4FA800-0C3C-4563-8241-763F5E050DF6}"/>
+    <hyperlink ref="C18:C19" location="Categoria!B4" display="Categoria!B4" xr:uid="{D2DBED4F-3CCF-4108-BE53-50B685B3B729}"/>
+    <hyperlink ref="C15:C17" location="Categoria!B3" display="Categoria!B3" xr:uid="{48D4AF65-337C-4362-B00A-92820C7BC089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4108,8 +4200,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4119,18 +4211,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>634</v>
       </c>
     </row>
@@ -4165,10 +4257,10 @@
       <c r="B6" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -4177,8 +4269,8 @@
       <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -4227,7 +4319,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,30 +4330,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>690</v>
       </c>
     </row>
@@ -4290,10 +4382,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -4306,8 +4398,8 @@
         <v>22</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -4364,7 +4456,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,94 +4474,122 @@
     <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="57" t="s">
         <v>692</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="18">
         <v>1038417228</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="str">
+      <c r="J2" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3215569822</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="M2" s="2" t="str">
         <f>+Pais!B39</f>
         <v>Canadá</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="N2" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+    </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="52"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P5" s="56"/>
-      <c r="Q5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4499,41 +4619,41 @@
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>93</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -4542,7 +4662,7 @@
       <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <v>355</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4557,7 +4677,7 @@
       <c r="B4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4572,7 +4692,7 @@
       <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="31">
         <v>376</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -4587,7 +4707,7 @@
       <c r="B6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="31">
         <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4602,17 +4722,17 @@
       <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
@@ -4621,15 +4741,15 @@
       <c r="B8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="31">
         <v>672</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -4638,7 +4758,7 @@
       <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4653,7 +4773,7 @@
       <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="31">
         <v>966</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4668,7 +4788,7 @@
       <c r="B11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -4683,7 +4803,7 @@
       <c r="B12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -4698,7 +4818,7 @@
       <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>374</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -4713,7 +4833,7 @@
       <c r="B14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="31">
         <v>297</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4728,7 +4848,7 @@
       <c r="B15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -4743,7 +4863,7 @@
       <c r="B16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="31">
         <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -4758,7 +4878,7 @@
       <c r="B17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>994</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4773,7 +4893,7 @@
       <c r="B18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="31">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4788,7 +4908,7 @@
       <c r="B19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -4803,7 +4923,7 @@
       <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <v>973</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -4818,7 +4938,7 @@
       <c r="B21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="31">
         <v>880</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -4833,7 +4953,7 @@
       <c r="B22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>160</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4848,7 +4968,7 @@
       <c r="B23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="31">
         <v>501</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4863,7 +4983,7 @@
       <c r="B24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <v>229</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -4878,7 +4998,7 @@
       <c r="B25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="31">
         <v>975</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4893,7 +5013,7 @@
       <c r="B26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="31">
         <v>375</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4908,7 +5028,7 @@
       <c r="B27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="31">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4923,7 +5043,7 @@
       <c r="B28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="31">
         <v>591</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4938,7 +5058,7 @@
       <c r="B29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="31">
         <v>387</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4953,7 +5073,7 @@
       <c r="B30" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="31">
         <v>267</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4968,7 +5088,7 @@
       <c r="B31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="31">
         <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4983,7 +5103,7 @@
       <c r="B32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="31">
         <v>673</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4998,7 +5118,7 @@
       <c r="B33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="31">
         <v>359</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -5013,7 +5133,7 @@
       <c r="B34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="31">
         <v>226</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -5028,7 +5148,7 @@
       <c r="B35" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="31">
         <v>257</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -5043,7 +5163,7 @@
       <c r="B36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="31">
         <v>238</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -5058,7 +5178,7 @@
       <c r="B37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="31">
         <v>855</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -5073,7 +5193,7 @@
       <c r="B38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="31">
         <v>237</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -5088,7 +5208,7 @@
       <c r="B39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="31">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -5103,7 +5223,7 @@
       <c r="B40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="31">
         <v>235</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -5118,7 +5238,7 @@
       <c r="B41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="31">
         <v>56</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5133,7 +5253,7 @@
       <c r="B42" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="31">
         <v>86</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -5148,7 +5268,7 @@
       <c r="B43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="31">
         <v>357</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -5163,7 +5283,7 @@
       <c r="B44" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="31">
         <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -5178,7 +5298,7 @@
       <c r="B45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="31">
         <v>57</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -5193,7 +5313,7 @@
       <c r="B46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="31">
         <v>269</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -5208,7 +5328,7 @@
       <c r="B47" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="31">
         <v>242</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -5223,7 +5343,7 @@
       <c r="B48" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="31">
         <v>243</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -5238,7 +5358,7 @@
       <c r="B49" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="31">
         <v>850</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -5253,7 +5373,7 @@
       <c r="B50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="31">
         <v>82</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -5268,7 +5388,7 @@
       <c r="B51" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="31">
         <v>225</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -5283,7 +5403,7 @@
       <c r="B52" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="31">
         <v>506</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -5298,7 +5418,7 @@
       <c r="B53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="31">
         <v>385</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -5313,7 +5433,7 @@
       <c r="B54" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="31">
         <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -5328,7 +5448,7 @@
       <c r="B55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="31">
         <v>5999</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -5343,7 +5463,7 @@
       <c r="B56" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="31">
         <v>45</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -5358,7 +5478,7 @@
       <c r="B57" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="31" t="s">
         <v>231</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -5373,7 +5493,7 @@
       <c r="B58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="31">
         <v>593</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -5388,7 +5508,7 @@
       <c r="B59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="31">
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -5403,7 +5523,7 @@
       <c r="B60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="31">
         <v>503</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -5418,7 +5538,7 @@
       <c r="B61" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="31">
         <v>971</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -5433,7 +5553,7 @@
       <c r="B62" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <v>291</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -5448,7 +5568,7 @@
       <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <v>421</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -5463,7 +5583,7 @@
       <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="31">
         <v>386</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -5478,7 +5598,7 @@
       <c r="B65" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="31">
         <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -5493,7 +5613,7 @@
       <c r="B66" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="31">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -5508,7 +5628,7 @@
       <c r="B67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="31">
         <v>372</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -5523,7 +5643,7 @@
       <c r="B68" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="31">
         <v>251</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -5538,7 +5658,7 @@
       <c r="B69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="31">
         <v>63</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -5553,7 +5673,7 @@
       <c r="B70" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="31">
         <v>358</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -5568,7 +5688,7 @@
       <c r="B71" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="31">
         <v>679</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5583,7 +5703,7 @@
       <c r="B72" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="31">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -5598,7 +5718,7 @@
       <c r="B73" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="31">
         <v>241</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -5613,7 +5733,7 @@
       <c r="B74" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="31">
         <v>220</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -5628,7 +5748,7 @@
       <c r="B75" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="31">
         <v>995</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -5643,7 +5763,7 @@
       <c r="B76" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="31">
         <v>233</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -5658,7 +5778,7 @@
       <c r="B77" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C77" s="31">
         <v>350</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -5673,7 +5793,7 @@
       <c r="B78" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="31" t="s">
         <v>274</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -5688,7 +5808,7 @@
       <c r="B79" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="31">
         <v>30</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -5703,7 +5823,7 @@
       <c r="B80" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="31">
         <v>299</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -5718,7 +5838,7 @@
       <c r="B81" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="31">
         <v>590</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -5733,7 +5853,7 @@
       <c r="B82" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="31" t="s">
         <v>283</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -5748,7 +5868,7 @@
       <c r="B83" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="33">
+      <c r="C83" s="31">
         <v>502</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -5763,7 +5883,7 @@
       <c r="B84" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="31">
         <v>594</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -5778,7 +5898,7 @@
       <c r="B85" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C85" s="31">
         <v>44</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -5793,7 +5913,7 @@
       <c r="B86" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C86" s="33">
+      <c r="C86" s="31">
         <v>224</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -5808,7 +5928,7 @@
       <c r="B87" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C87" s="31">
         <v>240</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -5823,7 +5943,7 @@
       <c r="B88" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="33">
+      <c r="C88" s="31">
         <v>245</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -5838,7 +5958,7 @@
       <c r="B89" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C89" s="33">
+      <c r="C89" s="31">
         <v>592</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -5853,7 +5973,7 @@
       <c r="B90" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C90" s="33">
+      <c r="C90" s="31">
         <v>509</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -5868,7 +5988,7 @@
       <c r="B91" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C91" s="33">
+      <c r="C91" s="31">
         <v>504</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -5883,7 +6003,7 @@
       <c r="B92" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C92" s="33">
+      <c r="C92" s="31">
         <v>852</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -5898,7 +6018,7 @@
       <c r="B93" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C93" s="33">
+      <c r="C93" s="31">
         <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -5913,7 +6033,7 @@
       <c r="B94" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C94" s="33">
+      <c r="C94" s="31">
         <v>91</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -5928,7 +6048,7 @@
       <c r="B95" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="33">
+      <c r="C95" s="31">
         <v>62</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -5943,7 +6063,7 @@
       <c r="B96" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="33">
+      <c r="C96" s="31">
         <v>98</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -5958,7 +6078,7 @@
       <c r="B97" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C97" s="31">
         <v>964</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -5973,7 +6093,7 @@
       <c r="B98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C98" s="33">
+      <c r="C98" s="31">
         <v>353</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -5988,7 +6108,7 @@
       <c r="B99" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="33">
+      <c r="C99" s="31">
         <v>44</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -6003,7 +6123,7 @@
       <c r="B100" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="31">
         <v>61</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -6018,7 +6138,7 @@
       <c r="B101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="33">
+      <c r="C101" s="31">
         <v>672</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -6033,7 +6153,7 @@
       <c r="B102" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="31">
         <v>354</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -6048,7 +6168,7 @@
       <c r="B103" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="31" t="s">
         <v>326</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -6063,7 +6183,7 @@
       <c r="B104" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C104" s="33" t="s">
+      <c r="C104" s="31" t="s">
         <v>329</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -6078,7 +6198,7 @@
       <c r="B105" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="31">
         <v>61</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -6093,7 +6213,7 @@
       <c r="B106" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C106" s="33">
+      <c r="C106" s="31">
         <v>682</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -6108,7 +6228,7 @@
       <c r="B107" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="33">
+      <c r="C107" s="31">
         <v>358</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -6123,7 +6243,7 @@
       <c r="B108" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C108" s="33">
+      <c r="C108" s="31">
         <v>298</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -6138,7 +6258,7 @@
       <c r="B109" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C109" s="33">
+      <c r="C109" s="31">
         <v>500</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -6153,7 +6273,7 @@
       <c r="B110" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="33">
+      <c r="C110" s="31">
         <v>960</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -6168,7 +6288,7 @@
       <c r="B111" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C111" s="33">
+      <c r="C111" s="31">
         <v>500</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -6183,7 +6303,7 @@
       <c r="B112" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C112" s="33" t="s">
+      <c r="C112" s="31" t="s">
         <v>346</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -6198,7 +6318,7 @@
       <c r="B113" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="33">
+      <c r="C113" s="31">
         <v>692</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -6213,7 +6333,7 @@
       <c r="B114" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C114" s="33">
+      <c r="C114" s="31">
         <v>870</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -6228,7 +6348,7 @@
       <c r="B115" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C115" s="33">
+      <c r="C115" s="31">
         <v>677</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -6243,7 +6363,7 @@
       <c r="B116" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="31" t="s">
         <v>355</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -6258,7 +6378,7 @@
       <c r="B117" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C117" s="33">
+      <c r="C117" s="31">
         <v>246</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -6273,7 +6393,7 @@
       <c r="B118" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C118" s="31" t="s">
         <v>360</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -6288,7 +6408,7 @@
       <c r="B119" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="31" t="s">
         <v>363</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -6303,7 +6423,7 @@
       <c r="B120" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C120" s="33">
+      <c r="C120" s="31">
         <v>972</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -6318,7 +6438,7 @@
       <c r="B121" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C121" s="33">
+      <c r="C121" s="31">
         <v>39</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -6333,7 +6453,7 @@
       <c r="B122" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C122" s="33" t="s">
+      <c r="C122" s="31" t="s">
         <v>370</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -6348,7 +6468,7 @@
       <c r="B123" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C123" s="33">
+      <c r="C123" s="31">
         <v>81</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -6363,7 +6483,7 @@
       <c r="B124" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C124" s="33">
+      <c r="C124" s="31">
         <v>44</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -6378,7 +6498,7 @@
       <c r="B125" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="33">
+      <c r="C125" s="31">
         <v>962</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -6393,7 +6513,7 @@
       <c r="B126" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C126" s="33">
+      <c r="C126" s="31">
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -6408,7 +6528,7 @@
       <c r="B127" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="33">
+      <c r="C127" s="31">
         <v>254</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -6423,7 +6543,7 @@
       <c r="B128" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C128" s="33">
+      <c r="C128" s="31">
         <v>996</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -6438,7 +6558,7 @@
       <c r="B129" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="33">
+      <c r="C129" s="31">
         <v>686</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -6453,7 +6573,7 @@
       <c r="B130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="33">
+      <c r="C130" s="31">
         <v>965</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -6468,7 +6588,7 @@
       <c r="B131" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="33">
+      <c r="C131" s="31">
         <v>961</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -6483,7 +6603,7 @@
       <c r="B132" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C132" s="33">
+      <c r="C132" s="31">
         <v>856</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -6498,7 +6618,7 @@
       <c r="B133" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C133" s="33">
+      <c r="C133" s="31">
         <v>266</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -6513,7 +6633,7 @@
       <c r="B134" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="33">
+      <c r="C134" s="31">
         <v>371</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -6528,7 +6648,7 @@
       <c r="B135" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C135" s="33">
+      <c r="C135" s="31">
         <v>231</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -6543,7 +6663,7 @@
       <c r="B136" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="33">
+      <c r="C136" s="31">
         <v>218</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -6558,7 +6678,7 @@
       <c r="B137" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="33">
+      <c r="C137" s="31">
         <v>423</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -6573,7 +6693,7 @@
       <c r="B138" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="33">
+      <c r="C138" s="31">
         <v>370</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -6588,7 +6708,7 @@
       <c r="B139" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="33">
+      <c r="C139" s="31">
         <v>352</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -6603,7 +6723,7 @@
       <c r="B140" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C140" s="33">
+      <c r="C140" s="31">
         <v>52</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -6618,7 +6738,7 @@
       <c r="B141" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C141" s="33">
+      <c r="C141" s="31">
         <v>377</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -6633,7 +6753,7 @@
       <c r="B142" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C142" s="33">
+      <c r="C142" s="31">
         <v>853</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -6648,7 +6768,7 @@
       <c r="B143" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C143" s="33">
+      <c r="C143" s="31">
         <v>389</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -6663,7 +6783,7 @@
       <c r="B144" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C144" s="33">
+      <c r="C144" s="31">
         <v>261</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -6678,7 +6798,7 @@
       <c r="B145" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C145" s="33">
+      <c r="C145" s="31">
         <v>60</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -6693,7 +6813,7 @@
       <c r="B146" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C146" s="33">
+      <c r="C146" s="31">
         <v>265</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -6708,7 +6828,7 @@
       <c r="B147" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C147" s="33">
+      <c r="C147" s="31">
         <v>223</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -6723,7 +6843,7 @@
       <c r="B148" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C148" s="33">
+      <c r="C148" s="31">
         <v>356</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -6738,7 +6858,7 @@
       <c r="B149" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C149" s="33">
+      <c r="C149" s="31">
         <v>212</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -6753,7 +6873,7 @@
       <c r="B150" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C150" s="33">
+      <c r="C150" s="31">
         <v>596</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -6768,7 +6888,7 @@
       <c r="B151" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C151" s="33">
+      <c r="C151" s="31">
         <v>230</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -6783,7 +6903,7 @@
       <c r="B152" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C152" s="33">
+      <c r="C152" s="31">
         <v>222</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -6798,7 +6918,7 @@
       <c r="B153" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C153" s="33">
+      <c r="C153" s="31">
         <v>262</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -6813,7 +6933,7 @@
       <c r="B154" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C154" s="33">
+      <c r="C154" s="31">
         <v>691</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -6828,7 +6948,7 @@
       <c r="B155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C155" s="33">
+      <c r="C155" s="31">
         <v>373</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -6843,7 +6963,7 @@
       <c r="B156" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C156" s="33">
+      <c r="C156" s="31">
         <v>976</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -6858,7 +6978,7 @@
       <c r="B157" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C157" s="33">
+      <c r="C157" s="31">
         <v>382</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -6873,7 +6993,7 @@
       <c r="B158" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C158" s="33" t="s">
+      <c r="C158" s="31" t="s">
         <v>443</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -6888,7 +7008,7 @@
       <c r="B159" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C159" s="33">
+      <c r="C159" s="31">
         <v>258</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -6903,7 +7023,7 @@
       <c r="B160" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C160" s="33">
+      <c r="C160" s="31">
         <v>264</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -6918,7 +7038,7 @@
       <c r="B161" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C161" s="33">
+      <c r="C161" s="31">
         <v>674</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -6933,7 +7053,7 @@
       <c r="B162" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C162" s="33">
+      <c r="C162" s="31">
         <v>977</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -6948,7 +7068,7 @@
       <c r="B163" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C163" s="33">
+      <c r="C163" s="31">
         <v>505</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -6963,7 +7083,7 @@
       <c r="B164" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C164" s="33">
+      <c r="C164" s="31">
         <v>227</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -6978,7 +7098,7 @@
       <c r="B165" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C165" s="33">
+      <c r="C165" s="31">
         <v>234</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -6993,7 +7113,7 @@
       <c r="B166" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C166" s="33">
+      <c r="C166" s="31">
         <v>683</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -7008,7 +7128,7 @@
       <c r="B167" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C167" s="33">
+      <c r="C167" s="31">
         <v>47</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -7023,7 +7143,7 @@
       <c r="B168" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C168" s="33">
+      <c r="C168" s="31">
         <v>687</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -7038,7 +7158,7 @@
       <c r="B169" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C169" s="33">
+      <c r="C169" s="31">
         <v>64</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -7053,7 +7173,7 @@
       <c r="B170" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C170" s="33">
+      <c r="C170" s="31">
         <v>968</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -7068,7 +7188,7 @@
       <c r="B171" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C171" s="33">
+      <c r="C171" s="31">
         <v>31</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -7083,7 +7203,7 @@
       <c r="B172" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C172" s="33">
+      <c r="C172" s="31">
         <v>92</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -7098,7 +7218,7 @@
       <c r="B173" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C173" s="33">
+      <c r="C173" s="31">
         <v>680</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -7113,7 +7233,7 @@
       <c r="B174" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C174" s="33">
+      <c r="C174" s="31">
         <v>970</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -7128,7 +7248,7 @@
       <c r="B175" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C175" s="33">
+      <c r="C175" s="31">
         <v>507</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -7143,7 +7263,7 @@
       <c r="B176" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C176" s="33">
+      <c r="C176" s="31">
         <v>675</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -7158,7 +7278,7 @@
       <c r="B177" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C177" s="33">
+      <c r="C177" s="31">
         <v>595</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -7173,7 +7293,7 @@
       <c r="B178" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C178" s="33">
+      <c r="C178" s="31">
         <v>51</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -7188,7 +7308,7 @@
       <c r="B179" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C179" s="33">
+      <c r="C179" s="31">
         <v>689</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -7203,7 +7323,7 @@
       <c r="B180" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C180" s="33">
+      <c r="C180" s="31">
         <v>48</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -7218,7 +7338,7 @@
       <c r="B181" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C181" s="33">
+      <c r="C181" s="31">
         <v>351</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -7233,7 +7353,7 @@
       <c r="B182" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C182" s="33">
+      <c r="C182" s="31">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -7248,7 +7368,7 @@
       <c r="B183" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C183" s="33">
+      <c r="C183" s="31">
         <v>974</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -7263,7 +7383,7 @@
       <c r="B184" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C184" s="33">
+      <c r="C184" s="31">
         <v>44</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -7278,7 +7398,7 @@
       <c r="B185" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C185" s="33">
+      <c r="C185" s="31">
         <v>236</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -7293,7 +7413,7 @@
       <c r="B186" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C186" s="33">
+      <c r="C186" s="31">
         <v>420</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -7308,7 +7428,7 @@
       <c r="B187" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C187" s="33" t="s">
+      <c r="C187" s="31" t="s">
         <v>502</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -7323,7 +7443,7 @@
       <c r="B188" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C188" s="33">
+      <c r="C188" s="31">
         <v>211</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -7338,7 +7458,7 @@
       <c r="B189" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C189" s="33">
+      <c r="C189" s="31">
         <v>262</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -7353,7 +7473,7 @@
       <c r="B190" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C190" s="33">
+      <c r="C190" s="31">
         <v>250</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -7368,7 +7488,7 @@
       <c r="B191" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C191" s="33">
+      <c r="C191" s="31">
         <v>40</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -7383,7 +7503,7 @@
       <c r="B192" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C192" s="33">
+      <c r="C192" s="31">
         <v>7</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -7398,7 +7518,7 @@
       <c r="B193" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C193" s="33">
+      <c r="C193" s="31">
         <v>212</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -7413,7 +7533,7 @@
       <c r="B194" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C194" s="33">
+      <c r="C194" s="31">
         <v>685</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -7428,7 +7548,7 @@
       <c r="B195" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C195" s="33" t="s">
+      <c r="C195" s="31" t="s">
         <v>519</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -7443,7 +7563,7 @@
       <c r="B196" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C196" s="33">
+      <c r="C196" s="31">
         <v>590</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -7458,7 +7578,7 @@
       <c r="B197" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C197" s="33" t="s">
+      <c r="C197" s="31" t="s">
         <v>524</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -7473,7 +7593,7 @@
       <c r="B198" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C198" s="33">
+      <c r="C198" s="31">
         <v>378</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -7488,7 +7608,7 @@
       <c r="B199" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C199" s="33" t="s">
+      <c r="C199" s="31" t="s">
         <v>529</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -7503,7 +7623,7 @@
       <c r="B200" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C200" s="33">
+      <c r="C200" s="31">
         <v>508</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -7518,7 +7638,7 @@
       <c r="B201" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C201" s="33" t="s">
+      <c r="C201" s="31" t="s">
         <v>534</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -7533,7 +7653,7 @@
       <c r="B202" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C202" s="33">
+      <c r="C202" s="31">
         <v>290</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -7548,7 +7668,7 @@
       <c r="B203" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C203" s="33" t="s">
+      <c r="C203" s="31" t="s">
         <v>539</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -7563,7 +7683,7 @@
       <c r="B204" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C204" s="33">
+      <c r="C204" s="31">
         <v>239</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -7578,7 +7698,7 @@
       <c r="B205" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C205" s="33">
+      <c r="C205" s="31">
         <v>221</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -7593,7 +7713,7 @@
       <c r="B206" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C206" s="33">
+      <c r="C206" s="31">
         <v>381</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -7608,7 +7728,7 @@
       <c r="B207" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C207" s="33">
+      <c r="C207" s="31">
         <v>248</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -7623,7 +7743,7 @@
       <c r="B208" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C208" s="33">
+      <c r="C208" s="31">
         <v>232</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -7638,7 +7758,7 @@
       <c r="B209" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C209" s="33">
+      <c r="C209" s="31">
         <v>65</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -7653,7 +7773,7 @@
       <c r="B210" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C210" s="33" t="s">
+      <c r="C210" s="31" t="s">
         <v>554</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -7668,7 +7788,7 @@
       <c r="B211" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C211" s="33">
+      <c r="C211" s="31">
         <v>963</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -7683,7 +7803,7 @@
       <c r="B212" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C212" s="33">
+      <c r="C212" s="31">
         <v>252</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -7698,7 +7818,7 @@
       <c r="B213" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C213" s="33">
+      <c r="C213" s="31">
         <v>94</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -7713,7 +7833,7 @@
       <c r="B214" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C214" s="33">
+      <c r="C214" s="31">
         <v>27</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -7728,7 +7848,7 @@
       <c r="B215" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C215" s="33">
+      <c r="C215" s="31">
         <v>249</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -7743,7 +7863,7 @@
       <c r="B216" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C216" s="33">
+      <c r="C216" s="31">
         <v>46</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -7758,7 +7878,7 @@
       <c r="B217" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C217" s="33">
+      <c r="C217" s="31">
         <v>41</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -7773,7 +7893,7 @@
       <c r="B218" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C218" s="33">
+      <c r="C218" s="31">
         <v>597</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -7788,7 +7908,7 @@
       <c r="B219" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C219" s="33">
+      <c r="C219" s="31">
         <v>47</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -7803,7 +7923,7 @@
       <c r="B220" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C220" s="33">
+      <c r="C220" s="31">
         <v>268</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -7818,7 +7938,7 @@
       <c r="B221" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C221" s="33">
+      <c r="C221" s="31">
         <v>992</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -7833,7 +7953,7 @@
       <c r="B222" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C222" s="33">
+      <c r="C222" s="31">
         <v>66</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -7848,7 +7968,7 @@
       <c r="B223" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C223" s="33">
+      <c r="C223" s="31">
         <v>886</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -7863,7 +7983,7 @@
       <c r="B224" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C224" s="33">
+      <c r="C224" s="31">
         <v>255</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -7878,7 +7998,7 @@
       <c r="B225" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C225" s="33">
+      <c r="C225" s="31">
         <v>246</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -7893,7 +8013,7 @@
       <c r="B226" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C226" s="33">
+      <c r="C226" s="31">
         <v>670</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -7908,7 +8028,7 @@
       <c r="B227" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C227" s="33">
+      <c r="C227" s="31">
         <v>228</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -7923,7 +8043,7 @@
       <c r="B228" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C228" s="33">
+      <c r="C228" s="31">
         <v>690</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -7938,7 +8058,7 @@
       <c r="B229" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C229" s="33">
+      <c r="C229" s="31">
         <v>676</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -7953,7 +8073,7 @@
       <c r="B230" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C230" s="33" t="s">
+      <c r="C230" s="31" t="s">
         <v>595</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -7968,7 +8088,7 @@
       <c r="B231" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C231" s="33">
+      <c r="C231" s="31">
         <v>216</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -7983,7 +8103,7 @@
       <c r="B232" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C232" s="33">
+      <c r="C232" s="31">
         <v>993</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -7998,7 +8118,7 @@
       <c r="B233" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C233" s="33">
+      <c r="C233" s="31">
         <v>90</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -8013,7 +8133,7 @@
       <c r="B234" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C234" s="33">
+      <c r="C234" s="31">
         <v>688</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -8028,7 +8148,7 @@
       <c r="B235" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C235" s="33">
+      <c r="C235" s="31">
         <v>380</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -8043,7 +8163,7 @@
       <c r="B236" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C236" s="33">
+      <c r="C236" s="31">
         <v>256</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -8058,7 +8178,7 @@
       <c r="B237" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C237" s="33">
+      <c r="C237" s="31">
         <v>598</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -8073,7 +8193,7 @@
       <c r="B238" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C238" s="33">
+      <c r="C238" s="31">
         <v>998</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -8088,7 +8208,7 @@
       <c r="B239" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C239" s="33">
+      <c r="C239" s="31">
         <v>678</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -8103,7 +8223,7 @@
       <c r="B240" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C240" s="33">
+      <c r="C240" s="31">
         <v>58</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -8118,7 +8238,7 @@
       <c r="B241" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C241" s="33">
+      <c r="C241" s="31">
         <v>84</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -8133,7 +8253,7 @@
       <c r="B242" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C242" s="33">
+      <c r="C242" s="31">
         <v>681</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -8148,7 +8268,7 @@
       <c r="B243" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C243" s="33">
+      <c r="C243" s="31">
         <v>967</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -8163,7 +8283,7 @@
       <c r="B244" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C244" s="33">
+      <c r="C244" s="31">
         <v>253</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -8178,7 +8298,7 @@
       <c r="B245" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C245" s="33">
+      <c r="C245" s="31">
         <v>260</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -8193,7 +8313,7 @@
       <c r="B246" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C246" s="34">
+      <c r="C246" s="32">
         <v>263</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -8232,18 +8352,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>680</v>
       </c>
     </row>
@@ -8251,7 +8371,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8259,7 +8379,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>682</v>
       </c>
     </row>
@@ -8267,7 +8387,7 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8275,7 +8395,7 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8283,1447 +8403,1447 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="H8" s="55" t="s">
+      <c r="B8" s="31"/>
+      <c r="H8" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="52"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="54"/>
+      <c r="B9" s="31"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="31"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="31"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="31"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="31"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="31"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="31"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="31"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="33"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="33"/>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="31"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="31"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="31"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="31"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="31"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="31"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="31"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="31"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="31"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="33"/>
+      <c r="B57" s="31"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="33"/>
+      <c r="B58" s="31"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="33"/>
+      <c r="B59" s="31"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="31"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="31"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="33"/>
+      <c r="B62" s="31"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="31"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="31"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="33"/>
+      <c r="B65" s="31"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="33"/>
+      <c r="B66" s="31"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="33"/>
+      <c r="B67" s="31"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="33"/>
+      <c r="B68" s="31"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="33"/>
+      <c r="B69" s="31"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="33"/>
+      <c r="B70" s="31"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="33"/>
+      <c r="B71" s="31"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="33"/>
+      <c r="B72" s="31"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="33"/>
+      <c r="B73" s="31"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="33"/>
+      <c r="B74" s="31"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="33"/>
+      <c r="B75" s="31"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="33"/>
+      <c r="B76" s="31"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="31"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="33"/>
+      <c r="B78" s="31"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="33"/>
+      <c r="B79" s="31"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="33"/>
+      <c r="B80" s="31"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="33"/>
+      <c r="B81" s="31"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="33"/>
+      <c r="B82" s="31"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="33"/>
+      <c r="B83" s="31"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="33"/>
+      <c r="B84" s="31"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="31"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="33"/>
+      <c r="B86" s="31"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="33"/>
+      <c r="B87" s="31"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="33"/>
+      <c r="B88" s="31"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="33"/>
+      <c r="B89" s="31"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="33"/>
+      <c r="B90" s="31"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="33"/>
+      <c r="B91" s="31"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="33"/>
+      <c r="B92" s="31"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="33"/>
+      <c r="B93" s="31"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="33"/>
+      <c r="B94" s="31"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="33"/>
+      <c r="B95" s="31"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="33"/>
+      <c r="B96" s="31"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="33"/>
+      <c r="B97" s="31"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="33"/>
+      <c r="B98" s="31"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="33"/>
+      <c r="B99" s="31"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="33"/>
+      <c r="B100" s="31"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="33"/>
+      <c r="B101" s="31"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="33"/>
+      <c r="B102" s="31"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="33"/>
+      <c r="B103" s="31"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="33"/>
+      <c r="B104" s="31"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="33"/>
+      <c r="B105" s="31"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="33"/>
+      <c r="B106" s="31"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="33"/>
+      <c r="B107" s="31"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="33"/>
+      <c r="B108" s="31"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="33"/>
+      <c r="B109" s="31"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="33"/>
+      <c r="B110" s="31"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="33"/>
+      <c r="B111" s="31"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="33"/>
+      <c r="B112" s="31"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="33"/>
+      <c r="B113" s="31"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="33"/>
+      <c r="B114" s="31"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="33"/>
+      <c r="B115" s="31"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="33"/>
+      <c r="B116" s="31"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="33"/>
+      <c r="B117" s="31"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="33"/>
+      <c r="B118" s="31"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="33"/>
+      <c r="B119" s="31"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="33"/>
+      <c r="B120" s="31"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="33"/>
+      <c r="B121" s="31"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="33"/>
+      <c r="B122" s="31"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="33"/>
+      <c r="B123" s="31"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="33"/>
+      <c r="B124" s="31"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="33"/>
+      <c r="B125" s="31"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="33"/>
+      <c r="B126" s="31"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="33"/>
+      <c r="B127" s="31"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="33"/>
+      <c r="B128" s="31"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="33"/>
+      <c r="B129" s="31"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="33"/>
+      <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="33"/>
+      <c r="B131" s="31"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="33"/>
+      <c r="B132" s="31"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="33"/>
+      <c r="B133" s="31"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="33"/>
+      <c r="B134" s="31"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="33"/>
+      <c r="B135" s="31"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="33"/>
+      <c r="B136" s="31"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="33"/>
+      <c r="B137" s="31"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="33"/>
+      <c r="B138" s="31"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="33"/>
+      <c r="B139" s="31"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="33"/>
+      <c r="B140" s="31"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="33"/>
+      <c r="B141" s="31"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="33"/>
+      <c r="B142" s="31"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="33"/>
+      <c r="B143" s="31"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="33"/>
+      <c r="B144" s="31"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="33"/>
+      <c r="B145" s="31"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="33"/>
+      <c r="B146" s="31"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="33"/>
+      <c r="B147" s="31"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="33"/>
+      <c r="B148" s="31"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="33"/>
+      <c r="B149" s="31"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="33"/>
+      <c r="B150" s="31"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="33"/>
+      <c r="B151" s="31"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="33"/>
+      <c r="B152" s="31"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="33"/>
+      <c r="B153" s="31"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="33"/>
+      <c r="B154" s="31"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="33"/>
+      <c r="B155" s="31"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="33"/>
+      <c r="B156" s="31"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="33"/>
+      <c r="B157" s="31"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="33"/>
+      <c r="B158" s="31"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="33"/>
+      <c r="B159" s="31"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="33"/>
+      <c r="B160" s="31"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="33"/>
+      <c r="B161" s="31"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="33"/>
+      <c r="B162" s="31"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="33"/>
+      <c r="B163" s="31"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="33"/>
+      <c r="B164" s="31"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="33"/>
+      <c r="B165" s="31"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="33"/>
+      <c r="B166" s="31"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="33"/>
+      <c r="B167" s="31"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="33"/>
+      <c r="B168" s="31"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="33"/>
+      <c r="B169" s="31"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="33"/>
+      <c r="B170" s="31"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="33"/>
+      <c r="B171" s="31"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="33"/>
+      <c r="B172" s="31"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="33"/>
+      <c r="B173" s="31"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="33"/>
+      <c r="B174" s="31"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="33"/>
+      <c r="B175" s="31"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="33"/>
+      <c r="B176" s="31"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="33"/>
+      <c r="B177" s="31"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="33"/>
+      <c r="B178" s="31"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="33"/>
+      <c r="B179" s="31"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="33"/>
+      <c r="B180" s="31"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="33"/>
+      <c r="B181" s="31"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="33"/>
+      <c r="B182" s="31"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="33"/>
+      <c r="B183" s="31"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>183</v>
       </c>
-      <c r="B184" s="33"/>
+      <c r="B184" s="31"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="33"/>
+      <c r="B185" s="31"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="33"/>
+      <c r="B186" s="31"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="33"/>
+      <c r="B187" s="31"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="33"/>
+      <c r="B188" s="31"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>188</v>
       </c>
-      <c r="B189" s="33"/>
+      <c r="B189" s="31"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>189</v>
       </c>
-      <c r="B190" s="33"/>
+      <c r="B190" s="31"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="33"/>
+      <c r="B191" s="31"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B192" s="33"/>
+      <c r="B192" s="31"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>192</v>
       </c>
-      <c r="B193" s="33"/>
+      <c r="B193" s="31"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>193</v>
       </c>
-      <c r="B194" s="33"/>
+      <c r="B194" s="31"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="33"/>
+      <c r="B195" s="31"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>195</v>
       </c>
-      <c r="B196" s="33"/>
+      <c r="B196" s="31"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="33"/>
+      <c r="B197" s="31"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>197</v>
       </c>
-      <c r="B198" s="33"/>
+      <c r="B198" s="31"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>198</v>
       </c>
-      <c r="B199" s="33"/>
+      <c r="B199" s="31"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>199</v>
       </c>
-      <c r="B200" s="33"/>
+      <c r="B200" s="31"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>200</v>
       </c>
-      <c r="B201" s="33"/>
+      <c r="B201" s="31"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>201</v>
       </c>
-      <c r="B202" s="33"/>
+      <c r="B202" s="31"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>202</v>
       </c>
-      <c r="B203" s="33"/>
+      <c r="B203" s="31"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>203</v>
       </c>
-      <c r="B204" s="33"/>
+      <c r="B204" s="31"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>204</v>
       </c>
-      <c r="B205" s="33"/>
+      <c r="B205" s="31"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="33"/>
+      <c r="B206" s="31"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="33"/>
+      <c r="B207" s="31"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="33"/>
+      <c r="B208" s="31"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="33"/>
+      <c r="B209" s="31"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="33"/>
+      <c r="B210" s="31"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="33"/>
+      <c r="B211" s="31"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>211</v>
       </c>
-      <c r="B212" s="33"/>
+      <c r="B212" s="31"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="33"/>
+      <c r="B213" s="31"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="33"/>
+      <c r="B214" s="31"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="33"/>
+      <c r="B215" s="31"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>215</v>
       </c>
-      <c r="B216" s="33"/>
+      <c r="B216" s="31"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>216</v>
       </c>
-      <c r="B217" s="33"/>
+      <c r="B217" s="31"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>217</v>
       </c>
-      <c r="B218" s="33"/>
+      <c r="B218" s="31"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>218</v>
       </c>
-      <c r="B219" s="33"/>
+      <c r="B219" s="31"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>219</v>
       </c>
-      <c r="B220" s="33"/>
+      <c r="B220" s="31"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>220</v>
       </c>
-      <c r="B221" s="33"/>
+      <c r="B221" s="31"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>221</v>
       </c>
-      <c r="B222" s="33"/>
+      <c r="B222" s="31"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>222</v>
       </c>
-      <c r="B223" s="33"/>
+      <c r="B223" s="31"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>223</v>
       </c>
-      <c r="B224" s="33"/>
+      <c r="B224" s="31"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>224</v>
       </c>
-      <c r="B225" s="33"/>
+      <c r="B225" s="31"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>225</v>
       </c>
-      <c r="B226" s="33"/>
+      <c r="B226" s="31"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>226</v>
       </c>
-      <c r="B227" s="33"/>
+      <c r="B227" s="31"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>227</v>
       </c>
-      <c r="B228" s="33"/>
+      <c r="B228" s="31"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>228</v>
       </c>
-      <c r="B229" s="33"/>
+      <c r="B229" s="31"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>229</v>
       </c>
-      <c r="B230" s="33"/>
+      <c r="B230" s="31"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>230</v>
       </c>
-      <c r="B231" s="33"/>
+      <c r="B231" s="31"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>231</v>
       </c>
-      <c r="B232" s="33"/>
+      <c r="B232" s="31"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>232</v>
       </c>
-      <c r="B233" s="33"/>
+      <c r="B233" s="31"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>233</v>
       </c>
-      <c r="B234" s="33"/>
+      <c r="B234" s="31"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>234</v>
       </c>
-      <c r="B235" s="33"/>
+      <c r="B235" s="31"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>235</v>
       </c>
-      <c r="B236" s="33"/>
+      <c r="B236" s="31"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>236</v>
       </c>
-      <c r="B237" s="33"/>
+      <c r="B237" s="31"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>237</v>
       </c>
-      <c r="B238" s="33"/>
+      <c r="B238" s="31"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>238</v>
       </c>
-      <c r="B239" s="33"/>
+      <c r="B239" s="31"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>239</v>
       </c>
-      <c r="B240" s="33"/>
+      <c r="B240" s="31"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>240</v>
       </c>
-      <c r="B241" s="33"/>
+      <c r="B241" s="31"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>241</v>
       </c>
-      <c r="B242" s="33"/>
+      <c r="B242" s="31"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>242</v>
       </c>
-      <c r="B243" s="33"/>
+      <c r="B243" s="31"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>243</v>
       </c>
-      <c r="B244" s="33"/>
+      <c r="B244" s="31"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>244</v>
       </c>
-      <c r="B245" s="33"/>
+      <c r="B245" s="31"/>
     </row>
     <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>245</v>
       </c>
-      <c r="B246" s="34"/>
+      <c r="B246" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9766,96 +9886,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="19">
         <v>3202223311</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -9873,10 +9993,10 @@
       <c r="G3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>92</v>
       </c>
       <c r="J3" s="2">
@@ -9886,7 +10006,7 @@
         <v>34</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>93</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -10029,14 +10149,14 @@
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="56"/>
-      <c r="L16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10076,30 +10196,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10172,10 +10292,10 @@
       <c r="D7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -10190,8 +10310,8 @@
       <c r="D8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10223,24 +10343,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10278,14 +10398,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="56"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10324,63 +10444,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>45207</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="27">
+      <c r="D2" s="19"/>
+      <c r="E2" s="25">
         <v>5</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="25">
         <v>13</v>
       </c>
-      <c r="G2" s="21" t="e">
+      <c r="G2" s="19" t="e">
         <f>+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="25">
         <v>6</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22">
+      <c r="I2" s="19"/>
+      <c r="J2" s="20">
         <v>1</v>
       </c>
     </row>
@@ -10439,14 +10559,14 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N7" s="56"/>
-      <c r="O7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
